--- a/recommended trades.xlsx
+++ b/recommended trades.xlsx
@@ -1928,13 +1928,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>121.96</v>
+        <v>120.2</v>
       </c>
       <c r="C2" s="2">
-        <v>37453216596</v>
+        <v>36435110739</v>
       </c>
       <c r="D2" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1942,13 +1942,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>14.06</v>
+        <v>13.12</v>
       </c>
       <c r="C3" s="2">
-        <v>9200267396</v>
+        <v>8662712484</v>
       </c>
       <c r="D3" s="3">
-        <v>141</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1959,10 +1959,10 @@
         <v>184.57</v>
       </c>
       <c r="C4" s="2">
-        <v>11530017045</v>
+        <v>11107290294</v>
       </c>
       <c r="D4" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1970,13 +1970,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>142.38</v>
+        <v>139.25</v>
       </c>
       <c r="C5" s="2">
-        <v>2347210228296</v>
+        <v>2322111899343</v>
       </c>
       <c r="D5" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1984,13 +1984,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>154.1</v>
+        <v>154.71</v>
       </c>
       <c r="C6" s="2">
-        <v>280218998677</v>
+        <v>281585391706</v>
       </c>
       <c r="D6" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1998,13 +1998,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>152.08</v>
+        <v>145.22</v>
       </c>
       <c r="C7" s="2">
-        <v>32323551636</v>
+        <v>30855601577</v>
       </c>
       <c r="D7" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2012,13 +2012,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>265.17</v>
+        <v>268.2</v>
       </c>
       <c r="C8" s="2">
-        <v>11667403658</v>
+        <v>11856022561</v>
       </c>
       <c r="D8" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2026,13 +2026,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>113.44</v>
+        <v>109.7</v>
       </c>
       <c r="C9" s="2">
-        <v>198386343336</v>
+        <v>192551272068</v>
       </c>
       <c r="D9" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2040,13 +2040,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>297.14</v>
+        <v>283.99</v>
       </c>
       <c r="C10" s="2">
-        <v>202781338629</v>
+        <v>188894273970</v>
       </c>
       <c r="D10" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2054,13 +2054,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>390.38</v>
+        <v>381.2</v>
       </c>
       <c r="C11" s="2">
-        <v>181420540139</v>
+        <v>175836130966</v>
       </c>
       <c r="D11" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2068,13 +2068,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>157.55</v>
+        <v>152.16</v>
       </c>
       <c r="C12" s="2">
-        <v>81937964517</v>
+        <v>77507774459</v>
       </c>
       <c r="D12" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2082,13 +2082,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>77.45999999999999</v>
+        <v>78.59</v>
       </c>
       <c r="C13" s="2">
-        <v>44160709267</v>
+        <v>44395591149</v>
       </c>
       <c r="D13" s="3">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2096,13 +2096,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="2">
-        <v>220.7</v>
+        <v>216.57</v>
       </c>
       <c r="C14" s="2">
-        <v>92761671056</v>
+        <v>91665278485</v>
       </c>
       <c r="D14" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2110,13 +2110,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="2">
-        <v>194.57</v>
+        <v>181.79</v>
       </c>
       <c r="C15" s="2">
-        <v>41450132280</v>
+        <v>39183486868</v>
       </c>
       <c r="D15" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2124,13 +2124,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>89.40000000000001</v>
+        <v>90.44</v>
       </c>
       <c r="C16" s="2">
-        <v>23768290716</v>
+        <v>23805061876</v>
       </c>
       <c r="D16" s="3">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2138,13 +2138,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="2">
-        <v>97</v>
+        <v>99.94</v>
       </c>
       <c r="C17" s="2">
-        <v>51099112957</v>
+        <v>51337904944</v>
       </c>
       <c r="D17" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2152,13 +2152,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>21.52</v>
+        <v>20.87</v>
       </c>
       <c r="C18" s="2">
-        <v>15021564145</v>
+        <v>13610097416</v>
       </c>
       <c r="D18" s="3">
-        <v>92</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2166,13 +2166,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="2">
-        <v>58.59</v>
+        <v>57.55</v>
       </c>
       <c r="C19" s="2">
-        <v>37632041789</v>
+        <v>36144674986</v>
       </c>
       <c r="D19" s="3">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2180,13 +2180,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="2">
-        <v>52.15</v>
+        <v>52.7</v>
       </c>
       <c r="C20" s="2">
-        <v>41374470149</v>
+        <v>41533484993</v>
       </c>
       <c r="D20" s="3">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2194,13 +2194,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="2">
-        <v>6.28</v>
+        <v>6.3</v>
       </c>
       <c r="C21" s="2">
-        <v>976397066</v>
+        <v>961328214</v>
       </c>
       <c r="D21" s="3">
-        <v>317</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2208,13 +2208,13 @@
         <v>24</v>
       </c>
       <c r="B22" s="2">
-        <v>174.58</v>
+        <v>173.72</v>
       </c>
       <c r="C22" s="2">
-        <v>9503496235</v>
+        <v>9528494290</v>
       </c>
       <c r="D22" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2222,13 +2222,13 @@
         <v>25</v>
       </c>
       <c r="B23" s="2">
-        <v>172.05</v>
+        <v>163.2</v>
       </c>
       <c r="C23" s="2">
-        <v>34893300302</v>
+        <v>35549285497</v>
       </c>
       <c r="D23" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2236,13 +2236,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="2">
-        <v>96.43000000000001</v>
+        <v>92.64</v>
       </c>
       <c r="C24" s="2">
-        <v>15792756424</v>
+        <v>14885301471</v>
       </c>
       <c r="D24" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2250,13 +2250,13 @@
         <v>27</v>
       </c>
       <c r="B25" s="2">
-        <v>235.67</v>
+        <v>215.97</v>
       </c>
       <c r="C25" s="2">
-        <v>26747019516</v>
+        <v>25438209311</v>
       </c>
       <c r="D25" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2264,13 +2264,13 @@
         <v>28</v>
       </c>
       <c r="B26" s="2">
-        <v>255.26</v>
+        <v>246.66</v>
       </c>
       <c r="C26" s="2">
-        <v>20354025604</v>
+        <v>19896254348</v>
       </c>
       <c r="D26" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2278,13 +2278,13 @@
         <v>29</v>
       </c>
       <c r="B27" s="2">
-        <v>42.68</v>
+        <v>41.54</v>
       </c>
       <c r="C27" s="2">
-        <v>5199069242</v>
+        <v>5335440603</v>
       </c>
       <c r="D27" s="3">
-        <v>46</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2292,13 +2292,13 @@
         <v>30</v>
       </c>
       <c r="B28" s="2">
-        <v>132.03</v>
+        <v>131.67</v>
       </c>
       <c r="C28" s="2">
-        <v>35294388673</v>
+        <v>34570027160</v>
       </c>
       <c r="D28" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2306,13 +2306,13 @@
         <v>31</v>
       </c>
       <c r="B29" s="2">
-        <v>101.85</v>
+        <v>100.77</v>
       </c>
       <c r="C29" s="2">
-        <v>9012982797</v>
+        <v>8819825862</v>
       </c>
       <c r="D29" s="3">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2320,13 +2320,13 @@
         <v>32</v>
       </c>
       <c r="B30" s="2">
-        <v>182.7</v>
+        <v>190.5</v>
       </c>
       <c r="C30" s="2">
-        <v>41205667559</v>
+        <v>41309397990</v>
       </c>
       <c r="D30" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2334,13 +2334,13 @@
         <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>98.02</v>
+        <v>92.83</v>
       </c>
       <c r="C31" s="2">
-        <v>85462074678</v>
+        <v>79984604595</v>
       </c>
       <c r="D31" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2348,13 +2348,13 @@
         <v>34</v>
       </c>
       <c r="B32" s="2">
-        <v>12.49</v>
+        <v>12.61</v>
       </c>
       <c r="C32" s="2">
-        <v>18992525041</v>
+        <v>19722284707</v>
       </c>
       <c r="D32" s="3">
-        <v>159</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2362,13 +2362,13 @@
         <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>87.61</v>
+        <v>81.8</v>
       </c>
       <c r="C33" s="2">
-        <v>139819591193</v>
+        <v>131833277654</v>
       </c>
       <c r="D33" s="3">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2376,13 +2376,13 @@
         <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>112.93</v>
+        <v>113.88</v>
       </c>
       <c r="C34" s="2">
-        <v>27226114871</v>
+        <v>26045260850</v>
       </c>
       <c r="D34" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2390,13 +2390,13 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>248.85</v>
+        <v>253.01</v>
       </c>
       <c r="C35" s="2">
-        <v>132371183255</v>
+        <v>136357672441</v>
       </c>
       <c r="D35" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2404,13 +2404,13 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>255.16</v>
+        <v>249</v>
       </c>
       <c r="C36" s="2">
-        <v>28010484084</v>
+        <v>26971300363</v>
       </c>
       <c r="D36" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2418,13 +2418,13 @@
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>261.39</v>
+        <v>254.03</v>
       </c>
       <c r="C37" s="2">
-        <v>119143816907</v>
+        <v>119531492504</v>
       </c>
       <c r="D37" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2432,13 +2432,13 @@
         <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>113.85</v>
+        <v>111.51</v>
       </c>
       <c r="C38" s="2">
-        <v>1154252388119</v>
+        <v>1140127017768</v>
       </c>
       <c r="D38" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2446,13 +2446,13 @@
         <v>41</v>
       </c>
       <c r="B39" s="2">
-        <v>103.45</v>
+        <v>99.66</v>
       </c>
       <c r="C39" s="2">
-        <v>30852809326</v>
+        <v>30159186786</v>
       </c>
       <c r="D39" s="3">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2460,13 +2460,13 @@
         <v>42</v>
       </c>
       <c r="B40" s="2">
-        <v>260.5</v>
+        <v>252.14</v>
       </c>
       <c r="C40" s="2">
-        <v>22122724619</v>
+        <v>21642827056</v>
       </c>
       <c r="D40" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2474,13 +2474,13 @@
         <v>43</v>
       </c>
       <c r="B41" s="2">
-        <v>497.85</v>
+        <v>503.87</v>
       </c>
       <c r="C41" s="2">
-        <v>121419200131</v>
+        <v>119514692269</v>
       </c>
       <c r="D41" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2488,13 +2488,13 @@
         <v>44</v>
       </c>
       <c r="B42" s="2">
-        <v>281.54</v>
+        <v>276.5</v>
       </c>
       <c r="C42" s="2">
-        <v>59241774825</v>
+        <v>58517596016</v>
       </c>
       <c r="D42" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2502,13 +2502,13 @@
         <v>45</v>
       </c>
       <c r="B43" s="2">
-        <v>56.86</v>
+        <v>56.5</v>
       </c>
       <c r="C43" s="2">
-        <v>9282216088</v>
+        <v>8999149816</v>
       </c>
       <c r="D43" s="3">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2516,13 +2516,13 @@
         <v>46</v>
       </c>
       <c r="B44" s="2">
-        <v>38.04</v>
+        <v>36.9</v>
       </c>
       <c r="C44" s="2">
-        <v>12971934026</v>
+        <v>12441019600</v>
       </c>
       <c r="D44" s="3">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2530,13 +2530,13 @@
         <v>47</v>
       </c>
       <c r="B45" s="2">
-        <v>253.81</v>
+        <v>244.22</v>
       </c>
       <c r="C45" s="2">
-        <v>56588097018</v>
+        <v>56571638452</v>
       </c>
       <c r="D45" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2544,13 +2544,13 @@
         <v>48</v>
       </c>
       <c r="B46" s="2">
-        <v>67.23</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="C46" s="2">
-        <v>40884861838</v>
+        <v>38599751684</v>
       </c>
       <c r="D46" s="3">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2558,13 +2558,13 @@
         <v>49</v>
       </c>
       <c r="B47" s="2">
-        <v>99</v>
+        <v>93.56</v>
       </c>
       <c r="C47" s="2">
-        <v>26487329317</v>
+        <v>25348481505</v>
       </c>
       <c r="D47" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2572,13 +2572,13 @@
         <v>50</v>
       </c>
       <c r="B48" s="2">
-        <v>152.7</v>
+        <v>151.31</v>
       </c>
       <c r="C48" s="2">
-        <v>24777217745</v>
+        <v>23849231014</v>
       </c>
       <c r="D48" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2586,13 +2586,13 @@
         <v>51</v>
       </c>
       <c r="B49" s="2">
-        <v>111.23</v>
+        <v>116.2</v>
       </c>
       <c r="C49" s="2">
-        <v>15532632171</v>
+        <v>15745038582</v>
       </c>
       <c r="D49" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2600,13 +2600,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="2">
-        <v>81.42</v>
+        <v>79.45999999999999</v>
       </c>
       <c r="C50" s="2">
-        <v>62457123732</v>
+        <v>62141261224</v>
       </c>
       <c r="D50" s="3">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2614,13 +2614,13 @@
         <v>53</v>
       </c>
       <c r="B51" s="2">
-        <v>205.08</v>
+        <v>202.73</v>
       </c>
       <c r="C51" s="2">
-        <v>28998517205</v>
+        <v>27655616499</v>
       </c>
       <c r="D51" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2628,13 +2628,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="2">
-        <v>526.14</v>
+        <v>496.62</v>
       </c>
       <c r="C52" s="2">
-        <v>210759953567</v>
+        <v>205901211086</v>
       </c>
       <c r="D52" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2642,13 +2642,13 @@
         <v>55</v>
       </c>
       <c r="B53" s="2">
-        <v>173.96</v>
+        <v>171</v>
       </c>
       <c r="C53" s="2">
-        <v>13808475441</v>
+        <v>13782119147</v>
       </c>
       <c r="D53" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2656,13 +2656,13 @@
         <v>56</v>
       </c>
       <c r="B54" s="2">
-        <v>156.02</v>
+        <v>148.97</v>
       </c>
       <c r="C54" s="2">
-        <v>28285678684</v>
+        <v>26593772753</v>
       </c>
       <c r="D54" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2670,13 +2670,13 @@
         <v>57</v>
       </c>
       <c r="B55" s="2">
-        <v>149.43</v>
+        <v>141.08</v>
       </c>
       <c r="C55" s="2">
-        <v>110741535137</v>
+        <v>108036336237</v>
       </c>
       <c r="D55" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2684,10 +2684,10 @@
         <v>58</v>
       </c>
       <c r="B56" s="2">
-        <v>2229.7</v>
+        <v>2161</v>
       </c>
       <c r="C56" s="2">
-        <v>44152553731</v>
+        <v>42994346506</v>
       </c>
       <c r="D56" s="3">
         <v>0</v>
@@ -2698,13 +2698,13 @@
         <v>59</v>
       </c>
       <c r="B57" s="2">
-        <v>141.82</v>
+        <v>140.17</v>
       </c>
       <c r="C57" s="2">
-        <v>83697040026</v>
+        <v>84795831292</v>
       </c>
       <c r="D57" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2712,13 +2712,13 @@
         <v>60</v>
       </c>
       <c r="B58" s="2">
-        <v>33.92</v>
+        <v>33.1</v>
       </c>
       <c r="C58" s="2">
-        <v>262018186538</v>
+        <v>267704480437</v>
       </c>
       <c r="D58" s="3">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2726,13 +2726,13 @@
         <v>61</v>
       </c>
       <c r="B59" s="2">
-        <v>67.93000000000001</v>
+        <v>68.92</v>
       </c>
       <c r="C59" s="2">
-        <v>34153415683</v>
+        <v>33995875490</v>
       </c>
       <c r="D59" s="3">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2740,13 +2740,13 @@
         <v>62</v>
       </c>
       <c r="B60" s="2">
-        <v>73.84</v>
+        <v>69.20999999999999</v>
       </c>
       <c r="C60" s="2">
-        <v>16532684440</v>
+        <v>15298887173</v>
       </c>
       <c r="D60" s="3">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2754,13 +2754,13 @@
         <v>63</v>
       </c>
       <c r="B61" s="2">
-        <v>258.5</v>
+        <v>253.92</v>
       </c>
       <c r="C61" s="2">
-        <v>73373323493</v>
+        <v>72252157631</v>
       </c>
       <c r="D61" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2768,13 +2768,13 @@
         <v>64</v>
       </c>
       <c r="B62" s="2">
-        <v>26.05</v>
+        <v>23.95</v>
       </c>
       <c r="C62" s="2">
-        <v>12720051914</v>
+        <v>11700400864</v>
       </c>
       <c r="D62" s="3">
-        <v>76</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2782,10 +2782,10 @@
         <v>65</v>
       </c>
       <c r="B63" s="2">
-        <v>73</v>
+        <v>74.02</v>
       </c>
       <c r="D63" s="3">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2793,13 +2793,13 @@
         <v>66</v>
       </c>
       <c r="B64" s="2">
-        <v>222.57</v>
+        <v>209.38</v>
       </c>
       <c r="C64" s="2">
-        <v>31357432754</v>
+        <v>30785532514</v>
       </c>
       <c r="D64" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2807,13 +2807,13 @@
         <v>67</v>
       </c>
       <c r="B65" s="2">
-        <v>522.17</v>
+        <v>503.76</v>
       </c>
       <c r="C65" s="2">
-        <v>15418751222</v>
+        <v>15143315340</v>
       </c>
       <c r="D65" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2821,13 +2821,13 @@
         <v>68</v>
       </c>
       <c r="B66" s="2">
-        <v>43.8</v>
+        <v>43.6</v>
       </c>
       <c r="C66" s="2">
-        <v>35707118707</v>
+        <v>35789403457</v>
       </c>
       <c r="D66" s="3">
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2835,13 +2835,13 @@
         <v>69</v>
       </c>
       <c r="B67" s="2">
-        <v>1936.37</v>
+        <v>1841.86</v>
       </c>
       <c r="C67" s="2">
-        <v>80207185094</v>
+        <v>76468287264</v>
       </c>
       <c r="D67" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2849,13 +2849,13 @@
         <v>70</v>
       </c>
       <c r="B68" s="2">
-        <v>30.76</v>
+        <v>29.9</v>
       </c>
       <c r="C68" s="2">
-        <v>31731390402</v>
+        <v>31832672669</v>
       </c>
       <c r="D68" s="3">
-        <v>64</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2863,13 +2863,13 @@
         <v>71</v>
       </c>
       <c r="B69" s="2">
-        <v>666.38</v>
+        <v>642.23</v>
       </c>
       <c r="C69" s="2">
-        <v>101012454362</v>
+        <v>97684079513</v>
       </c>
       <c r="D69" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2877,13 +2877,13 @@
         <v>72</v>
       </c>
       <c r="B70" s="2">
-        <v>70.39</v>
+        <v>72.51000000000001</v>
       </c>
       <c r="C70" s="2">
-        <v>22787499923</v>
+        <v>22381056803</v>
       </c>
       <c r="D70" s="3">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2891,13 +2891,13 @@
         <v>73</v>
       </c>
       <c r="B71" s="2">
-        <v>80.33</v>
+        <v>81.86</v>
       </c>
       <c r="C71" s="2">
-        <v>176083934375</v>
+        <v>168539038666</v>
       </c>
       <c r="D71" s="3">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2905,13 +2905,13 @@
         <v>74</v>
       </c>
       <c r="B72" s="2">
-        <v>151.92</v>
+        <v>144.07</v>
       </c>
       <c r="C72" s="2">
-        <v>17501820721</v>
+        <v>17514171300</v>
       </c>
       <c r="D72" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2919,10 +2919,10 @@
         <v>75</v>
       </c>
       <c r="B73" s="2">
-        <v>287.7</v>
+        <v>283.56</v>
       </c>
       <c r="D73" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2930,13 +2930,13 @@
         <v>76</v>
       </c>
       <c r="B74" s="2">
-        <v>39.53</v>
+        <v>38</v>
       </c>
       <c r="C74" s="2">
-        <v>55458984880</v>
+        <v>55916872806</v>
       </c>
       <c r="D74" s="3">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2944,13 +2944,13 @@
         <v>77</v>
       </c>
       <c r="B75" s="2">
-        <v>35.92</v>
+        <v>35.18</v>
       </c>
       <c r="C75" s="2">
-        <v>8983975459</v>
+        <v>8438211013</v>
       </c>
       <c r="D75" s="3">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2958,13 +2958,13 @@
         <v>78</v>
       </c>
       <c r="B76" s="2">
-        <v>92.52</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C76" s="2">
-        <v>14588530370</v>
+        <v>14512273239</v>
       </c>
       <c r="D76" s="3">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2972,13 +2972,13 @@
         <v>79</v>
       </c>
       <c r="B77" s="2">
-        <v>48.39</v>
+        <v>48.5</v>
       </c>
       <c r="C77" s="2">
-        <v>98802798668</v>
+        <v>94992225447</v>
       </c>
       <c r="D77" s="3">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2986,13 +2986,13 @@
         <v>80</v>
       </c>
       <c r="B78" s="2">
-        <v>35.2</v>
+        <v>35.8</v>
       </c>
       <c r="C78" s="2">
-        <v>16416021904</v>
+        <v>17088441615</v>
       </c>
       <c r="D78" s="3">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3000,13 +3000,13 @@
         <v>81</v>
       </c>
       <c r="B79" s="2">
-        <v>57.14</v>
+        <v>55.77</v>
       </c>
       <c r="C79" s="2">
-        <v>15413746713</v>
+        <v>15227635748</v>
       </c>
       <c r="D79" s="3">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3014,13 +3014,13 @@
         <v>82</v>
       </c>
       <c r="B80" s="2">
-        <v>37.22</v>
+        <v>35.87</v>
       </c>
       <c r="C80" s="2">
-        <v>31259672668</v>
+        <v>31198451408</v>
       </c>
       <c r="D80" s="3">
-        <v>53</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3028,13 +3028,13 @@
         <v>83</v>
       </c>
       <c r="B81" s="2">
-        <v>189.93</v>
+        <v>185.03</v>
       </c>
       <c r="C81" s="2">
-        <v>103074554359</v>
+        <v>98367494537</v>
       </c>
       <c r="D81" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3042,13 +3042,13 @@
         <v>84</v>
       </c>
       <c r="B82" s="2">
-        <v>197.61</v>
+        <v>193.82</v>
       </c>
       <c r="C82" s="2">
-        <v>85738408720</v>
+        <v>83326371603</v>
       </c>
       <c r="D82" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3056,13 +3056,13 @@
         <v>85</v>
       </c>
       <c r="B83" s="2">
-        <v>119.17</v>
+        <v>119.1</v>
       </c>
       <c r="C83" s="2">
-        <v>12450277502</v>
+        <v>12195804972</v>
       </c>
       <c r="D83" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3070,13 +3070,13 @@
         <v>86</v>
       </c>
       <c r="B84" s="2">
-        <v>76.98999999999999</v>
+        <v>74.92</v>
       </c>
       <c r="C84" s="2">
-        <v>24516336823</v>
+        <v>25228609777</v>
       </c>
       <c r="D84" s="3">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3084,13 +3084,13 @@
         <v>87</v>
       </c>
       <c r="B85" s="2">
-        <v>176.06</v>
+        <v>168.51</v>
       </c>
       <c r="C85" s="2">
-        <v>77514973509</v>
+        <v>75465340235</v>
       </c>
       <c r="D85" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3098,13 +3098,13 @@
         <v>88</v>
       </c>
       <c r="B86" s="2">
-        <v>11.07</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="C86" s="2">
-        <v>12169612325</v>
+        <v>10187093114</v>
       </c>
       <c r="D86" s="3">
-        <v>180</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3112,13 +3112,13 @@
         <v>89</v>
       </c>
       <c r="B87" s="2">
-        <v>160.16</v>
+        <v>157.28</v>
       </c>
       <c r="C87" s="2">
-        <v>44555045015</v>
+        <v>41637209399</v>
       </c>
       <c r="D87" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3126,13 +3126,13 @@
         <v>90</v>
       </c>
       <c r="B88" s="2">
-        <v>172.33</v>
+        <v>159.26</v>
       </c>
       <c r="C88" s="2">
-        <v>22970216345</v>
+        <v>21853796704</v>
       </c>
       <c r="D88" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3140,13 +3140,13 @@
         <v>91</v>
       </c>
       <c r="B89" s="2">
-        <v>125.23</v>
+        <v>125.52</v>
       </c>
       <c r="C89" s="2">
-        <v>14008627362</v>
+        <v>12977327895</v>
       </c>
       <c r="D89" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3154,13 +3154,13 @@
         <v>92</v>
       </c>
       <c r="B90" s="2">
-        <v>98.09</v>
+        <v>98.19</v>
       </c>
       <c r="C90" s="2">
-        <v>28982997761</v>
+        <v>28897035783</v>
       </c>
       <c r="D90" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3168,13 +3168,13 @@
         <v>93</v>
       </c>
       <c r="B91" s="2">
-        <v>90.3</v>
+        <v>89.59</v>
       </c>
       <c r="C91" s="2">
-        <v>18579314812</v>
+        <v>18501507099</v>
       </c>
       <c r="D91" s="3">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3182,13 +3182,13 @@
         <v>94</v>
       </c>
       <c r="B92" s="2">
-        <v>37.83</v>
+        <v>37.65</v>
       </c>
       <c r="C92" s="2">
-        <v>18074140773</v>
+        <v>17971594472</v>
       </c>
       <c r="D92" s="3">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3196,13 +3196,13 @@
         <v>95</v>
       </c>
       <c r="B93" s="2">
-        <v>96.22</v>
+        <v>92.45999999999999</v>
       </c>
       <c r="C93" s="2">
-        <v>23183518697</v>
+        <v>22576376720</v>
       </c>
       <c r="D93" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3210,13 +3210,13 @@
         <v>96</v>
       </c>
       <c r="B94" s="2">
-        <v>108.76</v>
+        <v>103.71</v>
       </c>
       <c r="C94" s="2">
-        <v>13418665924</v>
+        <v>13322122901</v>
       </c>
       <c r="D94" s="3">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3224,13 +3224,13 @@
         <v>97</v>
       </c>
       <c r="B95" s="2">
-        <v>481.76</v>
+        <v>467.52</v>
       </c>
       <c r="C95" s="2">
-        <v>81534005235</v>
+        <v>80835973527</v>
       </c>
       <c r="D95" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3238,13 +3238,13 @@
         <v>98</v>
       </c>
       <c r="B96" s="2">
-        <v>271.96</v>
+        <v>271.34</v>
       </c>
       <c r="C96" s="2">
-        <v>85902894430</v>
+        <v>88590913084</v>
       </c>
       <c r="D96" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3252,13 +3252,13 @@
         <v>99</v>
       </c>
       <c r="B97" s="2">
-        <v>119.8</v>
+        <v>120.9</v>
       </c>
       <c r="C97" s="2">
-        <v>18825809125</v>
+        <v>19009087950</v>
       </c>
       <c r="D97" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3266,13 +3266,13 @@
         <v>100</v>
       </c>
       <c r="B98" s="2">
-        <v>80.39</v>
+        <v>80.51000000000001</v>
       </c>
       <c r="C98" s="2">
-        <v>67633744163</v>
+        <v>68452240178</v>
       </c>
       <c r="D98" s="3">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3280,13 +3280,13 @@
         <v>101</v>
       </c>
       <c r="B99" s="2">
-        <v>143.59</v>
+        <v>145.2</v>
       </c>
       <c r="C99" s="2">
-        <v>17523410104</v>
+        <v>17431805760</v>
       </c>
       <c r="D99" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3294,13 +3294,13 @@
         <v>102</v>
       </c>
       <c r="B100" s="2">
-        <v>77.64</v>
+        <v>76.45</v>
       </c>
       <c r="C100" s="2">
-        <v>10404170694</v>
+        <v>10004685746</v>
       </c>
       <c r="D100" s="3">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3308,13 +3308,13 @@
         <v>103</v>
       </c>
       <c r="B101" s="2">
-        <v>41.47</v>
+        <v>40.07</v>
       </c>
       <c r="C101" s="2">
-        <v>186769029262</v>
+        <v>183604417350</v>
       </c>
       <c r="D101" s="3">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3322,13 +3322,13 @@
         <v>104</v>
       </c>
       <c r="B102" s="2">
-        <v>214.83</v>
+        <v>212.9</v>
       </c>
       <c r="C102" s="2">
-        <v>77690332583</v>
+        <v>74246529730</v>
       </c>
       <c r="D102" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3336,13 +3336,13 @@
         <v>105</v>
       </c>
       <c r="B103" s="2">
-        <v>1360.17</v>
+        <v>1331.5</v>
       </c>
       <c r="C103" s="2">
-        <v>37447235223</v>
+        <v>36665994753</v>
       </c>
       <c r="D103" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3350,13 +3350,13 @@
         <v>106</v>
       </c>
       <c r="B104" s="2">
-        <v>204.79</v>
+        <v>198.68</v>
       </c>
       <c r="C104" s="2">
-        <v>28127395293</v>
+        <v>27846900487</v>
       </c>
       <c r="D104" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3364,13 +3364,13 @@
         <v>107</v>
       </c>
       <c r="B105" s="2">
-        <v>66.34</v>
+        <v>68.3</v>
       </c>
       <c r="C105" s="2">
-        <v>19809653519</v>
+        <v>20170049417</v>
       </c>
       <c r="D105" s="3">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3378,13 +3378,13 @@
         <v>108</v>
       </c>
       <c r="B106" s="2">
-        <v>88.06999999999999</v>
+        <v>85.81</v>
       </c>
       <c r="C106" s="2">
-        <v>51852922188</v>
+        <v>51057118181</v>
       </c>
       <c r="D106" s="3">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3392,13 +3392,13 @@
         <v>109</v>
       </c>
       <c r="B107" s="2">
-        <v>30.01</v>
+        <v>29.57</v>
       </c>
       <c r="C107" s="2">
-        <v>18464806322</v>
+        <v>18574379743</v>
       </c>
       <c r="D107" s="3">
-        <v>66</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3406,13 +3406,13 @@
         <v>110</v>
       </c>
       <c r="B108" s="2">
-        <v>114.2</v>
+        <v>108.49</v>
       </c>
       <c r="C108" s="2">
-        <v>43861368169</v>
+        <v>42806779100</v>
       </c>
       <c r="D108" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3420,13 +3420,13 @@
         <v>111</v>
       </c>
       <c r="B109" s="2">
-        <v>23.11</v>
+        <v>23.32</v>
       </c>
       <c r="C109" s="2">
-        <v>9127665307</v>
+        <v>9083408229</v>
       </c>
       <c r="D109" s="3">
-        <v>86</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3434,13 +3434,13 @@
         <v>112</v>
       </c>
       <c r="B110" s="2">
-        <v>335.69</v>
+        <v>325.03</v>
       </c>
       <c r="C110" s="2">
-        <v>17420068945</v>
+        <v>16983763302</v>
       </c>
       <c r="D110" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3448,13 +3448,13 @@
         <v>113</v>
       </c>
       <c r="B111" s="2">
-        <v>95.8</v>
+        <v>94.34999999999999</v>
       </c>
       <c r="C111" s="2">
-        <v>122960385974</v>
+        <v>120396628347</v>
       </c>
       <c r="D111" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3462,13 +3462,13 @@
         <v>114</v>
       </c>
       <c r="B112" s="2">
-        <v>485.01</v>
+        <v>485.87</v>
       </c>
       <c r="C112" s="2">
-        <v>220983769992</v>
+        <v>209492593425</v>
       </c>
       <c r="D112" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3476,13 +3476,13 @@
         <v>115</v>
       </c>
       <c r="B113" s="2">
-        <v>8.529999999999999</v>
+        <v>8.23</v>
       </c>
       <c r="C113" s="2">
-        <v>6959845156</v>
+        <v>6778236266</v>
       </c>
       <c r="D113" s="3">
-        <v>233</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3490,13 +3490,13 @@
         <v>116</v>
       </c>
       <c r="B114" s="2">
-        <v>48.36</v>
+        <v>49.2</v>
       </c>
       <c r="C114" s="2">
-        <v>15009880348</v>
+        <v>14857121338</v>
       </c>
       <c r="D114" s="3">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3504,13 +3504,13 @@
         <v>117</v>
       </c>
       <c r="B115" s="2">
-        <v>112.56</v>
+        <v>110.1</v>
       </c>
       <c r="C115" s="2">
-        <v>27885621593</v>
+        <v>26833239968</v>
       </c>
       <c r="D115" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3518,13 +3518,13 @@
         <v>118</v>
       </c>
       <c r="B116" s="2">
-        <v>185.98</v>
+        <v>177.4</v>
       </c>
       <c r="C116" s="2">
-        <v>185070310943</v>
+        <v>173705885092</v>
       </c>
       <c r="D116" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3532,13 +3532,13 @@
         <v>119</v>
       </c>
       <c r="B117" s="2">
-        <v>44.3</v>
+        <v>43.7</v>
       </c>
       <c r="C117" s="2">
-        <v>184277854479</v>
+        <v>183884783314</v>
       </c>
       <c r="D117" s="3">
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3546,13 +3546,13 @@
         <v>120</v>
       </c>
       <c r="B118" s="2">
-        <v>29.52</v>
+        <v>30.16</v>
       </c>
       <c r="C118" s="2">
-        <v>66149975152</v>
+        <v>64435203808</v>
       </c>
       <c r="D118" s="3">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3560,13 +3560,13 @@
         <v>121</v>
       </c>
       <c r="B119" s="2">
-        <v>397.53</v>
+        <v>379.77</v>
       </c>
       <c r="C119" s="2">
-        <v>39205692900</v>
+        <v>38793967486</v>
       </c>
       <c r="D119" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3577,10 +3577,10 @@
         <v>11</v>
       </c>
       <c r="C120" s="2">
-        <v>12550676775</v>
+        <v>12447971879</v>
       </c>
       <c r="D120" s="3">
-        <v>181</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3588,13 +3588,13 @@
         <v>123</v>
       </c>
       <c r="B121" s="2">
-        <v>73.20999999999999</v>
+        <v>69.73</v>
       </c>
       <c r="C121" s="2">
-        <v>36756683304</v>
+        <v>35763201462</v>
       </c>
       <c r="D121" s="3">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3602,13 +3602,13 @@
         <v>124</v>
       </c>
       <c r="B122" s="2">
-        <v>56.62</v>
+        <v>55.48</v>
       </c>
       <c r="C122" s="2">
-        <v>40558663955</v>
+        <v>40501474568</v>
       </c>
       <c r="D122" s="3">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3616,13 +3616,13 @@
         <v>125</v>
       </c>
       <c r="B123" s="2">
-        <v>99.05</v>
+        <v>97.05</v>
       </c>
       <c r="C123" s="2">
-        <v>12365309555</v>
+        <v>12374867759</v>
       </c>
       <c r="D123" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3630,13 +3630,13 @@
         <v>126</v>
       </c>
       <c r="B124" s="2">
-        <v>98.67</v>
+        <v>97.58</v>
       </c>
       <c r="C124" s="2">
-        <v>128042047549</v>
+        <v>127792048264</v>
       </c>
       <c r="D124" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3644,13 +3644,13 @@
         <v>127</v>
       </c>
       <c r="B125" s="2">
-        <v>153.53</v>
+        <v>149.53</v>
       </c>
       <c r="C125" s="2">
-        <v>294446817524</v>
+        <v>295961084761</v>
       </c>
       <c r="D125" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3658,13 +3658,13 @@
         <v>128</v>
       </c>
       <c r="B126" s="2">
-        <v>67.8</v>
+        <v>67</v>
       </c>
       <c r="C126" s="2">
-        <v>13118279732</v>
+        <v>13171712695</v>
       </c>
       <c r="D126" s="3">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3672,13 +3672,13 @@
         <v>129</v>
       </c>
       <c r="B127" s="2">
-        <v>82.08</v>
+        <v>79.67</v>
       </c>
       <c r="C127" s="2">
-        <v>66338455229</v>
+        <v>65376753887</v>
       </c>
       <c r="D127" s="3">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3686,13 +3686,13 @@
         <v>130</v>
       </c>
       <c r="B128" s="2">
-        <v>30.73</v>
+        <v>30.11</v>
       </c>
       <c r="C128" s="2">
-        <v>19593685027</v>
+        <v>19868371349</v>
       </c>
       <c r="D128" s="3">
-        <v>64</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3700,13 +3700,13 @@
         <v>131</v>
       </c>
       <c r="B129" s="2">
-        <v>59.04</v>
+        <v>57.31</v>
       </c>
       <c r="C129" s="2">
-        <v>29551828797</v>
+        <v>28942123040</v>
       </c>
       <c r="D129" s="3">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3714,13 +3714,13 @@
         <v>132</v>
       </c>
       <c r="B130" s="2">
-        <v>326.82</v>
+        <v>308.59</v>
       </c>
       <c r="C130" s="2">
-        <v>98705222618</v>
+        <v>95442254431</v>
       </c>
       <c r="D130" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3728,13 +3728,13 @@
         <v>133</v>
       </c>
       <c r="B131" s="2">
-        <v>98.90000000000001</v>
+        <v>99.98</v>
       </c>
       <c r="C131" s="2">
-        <v>28485982871</v>
+        <v>27670467059</v>
       </c>
       <c r="D131" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3742,13 +3742,13 @@
         <v>134</v>
       </c>
       <c r="B132" s="2">
-        <v>256.8</v>
+        <v>259.19</v>
       </c>
       <c r="C132" s="2">
-        <v>56214326951</v>
+        <v>56618301000</v>
       </c>
       <c r="D132" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3756,13 +3756,13 @@
         <v>135</v>
       </c>
       <c r="B133" s="2">
-        <v>139.82</v>
+        <v>138.77</v>
       </c>
       <c r="C133" s="2">
-        <v>16771723342</v>
+        <v>16514150718</v>
       </c>
       <c r="D133" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3770,13 +3770,13 @@
         <v>136</v>
       </c>
       <c r="B134" s="2">
-        <v>69.27</v>
+        <v>68.48</v>
       </c>
       <c r="C134" s="2">
-        <v>24892835894</v>
+        <v>23309746585</v>
       </c>
       <c r="D134" s="3">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3784,13 +3784,13 @@
         <v>137</v>
       </c>
       <c r="B135" s="2">
-        <v>264.95</v>
+        <v>262.05</v>
       </c>
       <c r="C135" s="2">
-        <v>192234854448</v>
+        <v>188670545586</v>
       </c>
       <c r="D135" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3798,13 +3798,13 @@
         <v>138</v>
       </c>
       <c r="B136" s="2">
-        <v>101.17</v>
+        <v>95.89</v>
       </c>
       <c r="C136" s="2">
-        <v>179416042675</v>
+        <v>181916351707</v>
       </c>
       <c r="D136" s="3">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3812,10 +3812,10 @@
         <v>139</v>
       </c>
       <c r="B137" s="2">
-        <v>24.44</v>
+        <v>25.58</v>
       </c>
       <c r="D137" s="3">
-        <v>81</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3823,13 +3823,13 @@
         <v>140</v>
       </c>
       <c r="B138" s="2">
-        <v>19.54</v>
+        <v>18.51</v>
       </c>
       <c r="C138" s="2">
-        <v>9974688615</v>
+        <v>9758656045</v>
       </c>
       <c r="D138" s="3">
-        <v>102</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3837,13 +3837,13 @@
         <v>141</v>
       </c>
       <c r="B139" s="2">
-        <v>139.86</v>
+        <v>127.4</v>
       </c>
       <c r="C139" s="2">
-        <v>40144160242</v>
+        <v>37022900912</v>
       </c>
       <c r="D139" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3851,13 +3851,13 @@
         <v>142</v>
       </c>
       <c r="B140" s="2">
-        <v>164.77</v>
+        <v>159.636</v>
       </c>
       <c r="C140" s="2">
-        <v>36334382076</v>
+        <v>35657361319</v>
       </c>
       <c r="D140" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3865,13 +3865,13 @@
         <v>143</v>
       </c>
       <c r="B141" s="2">
-        <v>125.98</v>
+        <v>125.23</v>
       </c>
       <c r="C141" s="2">
-        <v>18153834286</v>
+        <v>17860305706</v>
       </c>
       <c r="D141" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3879,13 +3879,13 @@
         <v>144</v>
       </c>
       <c r="B142" s="2">
-        <v>53.18</v>
+        <v>54.57</v>
       </c>
       <c r="C142" s="2">
-        <v>39410924230</v>
+        <v>38232633956</v>
       </c>
       <c r="D142" s="3">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3893,13 +3893,13 @@
         <v>145</v>
       </c>
       <c r="B143" s="2">
-        <v>399.89</v>
+        <v>402.55</v>
       </c>
       <c r="C143" s="2">
-        <v>14901553793</v>
+        <v>14142273127</v>
       </c>
       <c r="D143" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3907,13 +3907,13 @@
         <v>146</v>
       </c>
       <c r="B144" s="2">
-        <v>56.84</v>
+        <v>57.01</v>
       </c>
       <c r="C144" s="2">
-        <v>22161886031</v>
+        <v>22312668966</v>
       </c>
       <c r="D144" s="3">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3921,13 +3921,13 @@
         <v>147</v>
       </c>
       <c r="B145" s="2">
-        <v>126.88</v>
+        <v>119.54</v>
       </c>
       <c r="C145" s="2">
-        <v>15722588958</v>
+        <v>14366532515</v>
       </c>
       <c r="D145" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3935,13 +3935,13 @@
         <v>148</v>
       </c>
       <c r="B146" s="2">
-        <v>124.96</v>
+        <v>129.13</v>
       </c>
       <c r="C146" s="2">
-        <v>25180848976</v>
+        <v>25405418809</v>
       </c>
       <c r="D146" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3949,13 +3949,13 @@
         <v>149</v>
       </c>
       <c r="B147" s="2">
-        <v>108.5</v>
+        <v>110.95</v>
       </c>
       <c r="C147" s="2">
-        <v>83302642383</v>
+        <v>84725609802</v>
       </c>
       <c r="D147" s="3">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3963,13 +3963,13 @@
         <v>150</v>
       </c>
       <c r="B148" s="2">
-        <v>80.04000000000001</v>
+        <v>85.19</v>
       </c>
       <c r="C148" s="2">
-        <v>7537471920</v>
+        <v>7891092308</v>
       </c>
       <c r="D148" s="3">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3977,13 +3977,13 @@
         <v>151</v>
       </c>
       <c r="B149" s="2">
-        <v>58.36</v>
+        <v>56.64</v>
       </c>
       <c r="C149" s="2">
-        <v>39488748610</v>
+        <v>38444672248</v>
       </c>
       <c r="D149" s="3">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3991,13 +3991,13 @@
         <v>152</v>
       </c>
       <c r="B150" s="2">
-        <v>32.62</v>
+        <v>31.83</v>
       </c>
       <c r="C150" s="2">
-        <v>7518517330</v>
+        <v>7139622558</v>
       </c>
       <c r="D150" s="3">
-        <v>61</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4005,13 +4005,13 @@
         <v>153</v>
       </c>
       <c r="B151" s="2">
-        <v>80</v>
+        <v>75.5</v>
       </c>
       <c r="C151" s="2">
-        <v>7541866305</v>
+        <v>7614897041</v>
       </c>
       <c r="D151" s="3">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4019,13 +4019,13 @@
         <v>154</v>
       </c>
       <c r="B152" s="2">
-        <v>129.02</v>
+        <v>127.45</v>
       </c>
       <c r="C152" s="2">
-        <v>36751819887</v>
+        <v>35645296068</v>
       </c>
       <c r="D152" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4033,13 +4033,13 @@
         <v>155</v>
       </c>
       <c r="B153" s="2">
-        <v>46.17</v>
+        <v>44.57</v>
       </c>
       <c r="C153" s="2">
-        <v>25459499091</v>
+        <v>24488825141</v>
       </c>
       <c r="D153" s="3">
-        <v>43</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4047,13 +4047,13 @@
         <v>156</v>
       </c>
       <c r="B154" s="2">
-        <v>158.42</v>
+        <v>156.53</v>
       </c>
       <c r="C154" s="2">
-        <v>45056833471</v>
+        <v>44271085670</v>
       </c>
       <c r="D154" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4061,13 +4061,13 @@
         <v>157</v>
       </c>
       <c r="B155" s="2">
-        <v>96.81</v>
+        <v>95.3</v>
       </c>
       <c r="C155" s="2">
-        <v>34267010194</v>
+        <v>34448149959</v>
       </c>
       <c r="D155" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4075,13 +4075,13 @@
         <v>158</v>
       </c>
       <c r="B156" s="2">
-        <v>189.63</v>
+        <v>181.01</v>
       </c>
       <c r="C156" s="2">
-        <v>22775305982</v>
+        <v>22668209209</v>
       </c>
       <c r="D156" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4089,13 +4089,13 @@
         <v>159</v>
       </c>
       <c r="B157" s="2">
-        <v>63.34</v>
+        <v>62.91</v>
       </c>
       <c r="C157" s="2">
-        <v>24417006225</v>
+        <v>23938597779</v>
       </c>
       <c r="D157" s="3">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4103,13 +4103,13 @@
         <v>160</v>
       </c>
       <c r="B158" s="2">
-        <v>270.32</v>
+        <v>267.67</v>
       </c>
       <c r="C158" s="2">
-        <v>95410801798</v>
+        <v>92981238226</v>
       </c>
       <c r="D158" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4117,13 +4117,13 @@
         <v>161</v>
       </c>
       <c r="B159" s="2">
-        <v>96.73999999999999</v>
+        <v>91.98</v>
       </c>
       <c r="C159" s="2">
-        <v>12003385654</v>
+        <v>12242589991</v>
       </c>
       <c r="D159" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4131,13 +4131,13 @@
         <v>162</v>
       </c>
       <c r="B160" s="2">
-        <v>85.34999999999999</v>
+        <v>83.78</v>
       </c>
       <c r="C160" s="2">
-        <v>49033871522</v>
+        <v>49260570134</v>
       </c>
       <c r="D160" s="3">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4145,13 +4145,13 @@
         <v>163</v>
       </c>
       <c r="B161" s="2">
-        <v>118.22</v>
+        <v>116.84</v>
       </c>
       <c r="C161" s="2">
-        <v>69681414221</v>
+        <v>69287576924</v>
       </c>
       <c r="D161" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4159,13 +4159,13 @@
         <v>164</v>
       </c>
       <c r="B162" s="2">
-        <v>713.9</v>
+        <v>662.2</v>
       </c>
       <c r="C162" s="2">
-        <v>62621736601</v>
+        <v>60312955953</v>
       </c>
       <c r="D162" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4173,13 +4173,13 @@
         <v>165</v>
       </c>
       <c r="B163" s="2">
-        <v>73.34</v>
+        <v>74.3</v>
       </c>
       <c r="C163" s="2">
-        <v>28384033400</v>
+        <v>28214800229</v>
       </c>
       <c r="D163" s="3">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4187,13 +4187,13 @@
         <v>166</v>
       </c>
       <c r="B164" s="2">
-        <v>85.69</v>
+        <v>86.69</v>
       </c>
       <c r="C164" s="2">
-        <v>29871993478</v>
+        <v>29605600424</v>
       </c>
       <c r="D164" s="3">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4201,13 +4201,13 @@
         <v>167</v>
       </c>
       <c r="B165" s="2">
-        <v>267.02</v>
+        <v>270.48</v>
       </c>
       <c r="C165" s="2">
-        <v>17972169743</v>
+        <v>17978277516</v>
       </c>
       <c r="D165" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4215,13 +4215,13 @@
         <v>168</v>
       </c>
       <c r="B166" s="2">
-        <v>50.4</v>
+        <v>49.55</v>
       </c>
       <c r="C166" s="2">
-        <v>11078872947</v>
+        <v>11021141801</v>
       </c>
       <c r="D166" s="3">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4229,13 +4229,13 @@
         <v>169</v>
       </c>
       <c r="B167" s="2">
-        <v>133.11</v>
+        <v>130.64</v>
       </c>
       <c r="C167" s="2">
-        <v>55172454585</v>
+        <v>53118652614</v>
       </c>
       <c r="D167" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4243,13 +4243,13 @@
         <v>170</v>
       </c>
       <c r="B168" s="2">
-        <v>114.71</v>
+        <v>115.08</v>
       </c>
       <c r="C168" s="2">
-        <v>23260329230</v>
+        <v>23108411137</v>
       </c>
       <c r="D168" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4257,13 +4257,13 @@
         <v>171</v>
       </c>
       <c r="B169" s="2">
-        <v>66.76000000000001</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="C169" s="2">
-        <v>15212821060</v>
+        <v>15242038787</v>
       </c>
       <c r="D169" s="3">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4271,13 +4271,13 @@
         <v>172</v>
       </c>
       <c r="B170" s="2">
-        <v>100.83</v>
+        <v>96.62</v>
       </c>
       <c r="C170" s="2">
-        <v>61230176948</v>
+        <v>61076312095</v>
       </c>
       <c r="D170" s="3">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4285,13 +4285,13 @@
         <v>173</v>
       </c>
       <c r="B171" s="2">
-        <v>44.2</v>
+        <v>44.45</v>
       </c>
       <c r="C171" s="2">
-        <v>43942331501</v>
+        <v>43661991509</v>
       </c>
       <c r="D171" s="3">
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4299,13 +4299,13 @@
         <v>174</v>
       </c>
       <c r="B172" s="2">
-        <v>104.59</v>
+        <v>102.11</v>
       </c>
       <c r="C172" s="2">
-        <v>16951670810</v>
+        <v>16801738554</v>
       </c>
       <c r="D172" s="3">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4313,13 +4313,13 @@
         <v>175</v>
       </c>
       <c r="B173" s="2">
-        <v>101.93</v>
+        <v>99.69</v>
       </c>
       <c r="C173" s="2">
-        <v>15640781634</v>
+        <v>14568645812</v>
       </c>
       <c r="D173" s="3">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4327,13 +4327,13 @@
         <v>176</v>
       </c>
       <c r="B174" s="2">
-        <v>177.82</v>
+        <v>176.96</v>
       </c>
       <c r="C174" s="2">
-        <v>23699260636</v>
+        <v>23731748933</v>
       </c>
       <c r="D174" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4341,13 +4341,13 @@
         <v>177</v>
       </c>
       <c r="B175" s="2">
-        <v>12.55</v>
+        <v>11.75</v>
       </c>
       <c r="C175" s="2">
-        <v>49205258088</v>
+        <v>45523596677</v>
       </c>
       <c r="D175" s="3">
-        <v>159</v>
+        <v>16</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4355,13 +4355,13 @@
         <v>178</v>
       </c>
       <c r="B176" s="2">
-        <v>126.64</v>
+        <v>125.37</v>
       </c>
       <c r="C176" s="2">
-        <v>22964388148</v>
+        <v>22079977090</v>
       </c>
       <c r="D176" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4369,13 +4369,13 @@
         <v>179</v>
       </c>
       <c r="B177" s="2">
-        <v>53.42</v>
+        <v>50.87</v>
       </c>
       <c r="C177" s="2">
-        <v>30098345435</v>
+        <v>28840001086</v>
       </c>
       <c r="D177" s="3">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4383,13 +4383,13 @@
         <v>180</v>
       </c>
       <c r="B178" s="2">
-        <v>204.1</v>
+        <v>197.27</v>
       </c>
       <c r="C178" s="2">
-        <v>578962361872</v>
+        <v>586946443658</v>
       </c>
       <c r="D178" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4397,13 +4397,13 @@
         <v>181</v>
       </c>
       <c r="B179" s="2">
-        <v>63.97</v>
+        <v>61.11</v>
       </c>
       <c r="C179" s="2">
-        <v>8277858752</v>
+        <v>8002767431</v>
       </c>
       <c r="D179" s="3">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4411,13 +4411,13 @@
         <v>182</v>
       </c>
       <c r="B180" s="2">
-        <v>31.21</v>
+        <v>30.4</v>
       </c>
       <c r="C180" s="2">
-        <v>47062171260</v>
+        <v>44061724354</v>
       </c>
       <c r="D180" s="3">
-        <v>63</v>
+        <v>6</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4425,13 +4425,13 @@
         <v>183</v>
       </c>
       <c r="B181" s="2">
-        <v>251.25</v>
+        <v>244.82</v>
       </c>
       <c r="C181" s="2">
-        <v>62755798360</v>
+        <v>63169845167</v>
       </c>
       <c r="D181" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4439,13 +4439,13 @@
         <v>184</v>
       </c>
       <c r="B182" s="2">
-        <v>39.34</v>
+        <v>39.1</v>
       </c>
       <c r="C182" s="2">
-        <v>22820186261</v>
+        <v>22254277108</v>
       </c>
       <c r="D182" s="3">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4453,13 +4453,13 @@
         <v>185</v>
       </c>
       <c r="B183" s="2">
-        <v>160.299</v>
+        <v>159.33</v>
       </c>
       <c r="C183" s="2">
-        <v>9975068345</v>
+        <v>9388768737</v>
       </c>
       <c r="D183" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4467,13 +4467,13 @@
         <v>186</v>
       </c>
       <c r="B184" s="2">
-        <v>98.15000000000001</v>
+        <v>99.12</v>
       </c>
       <c r="C184" s="2">
-        <v>60032660474</v>
+        <v>59969233705</v>
       </c>
       <c r="D184" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4481,13 +4481,13 @@
         <v>187</v>
       </c>
       <c r="B185" s="2">
-        <v>96.48</v>
+        <v>95.3</v>
       </c>
       <c r="C185" s="2">
-        <v>61664821924</v>
+        <v>60303038302</v>
       </c>
       <c r="D185" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4495,13 +4495,13 @@
         <v>188</v>
       </c>
       <c r="B186" s="2">
-        <v>36.548</v>
+        <v>35.23</v>
       </c>
       <c r="C186" s="2">
-        <v>24083958844</v>
+        <v>23696203404</v>
       </c>
       <c r="D186" s="3">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4509,13 +4509,13 @@
         <v>189</v>
       </c>
       <c r="B187" s="2">
-        <v>59.15</v>
+        <v>59.64</v>
       </c>
       <c r="C187" s="2">
-        <v>7878055327</v>
+        <v>7738638008</v>
       </c>
       <c r="D187" s="3">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4523,13 +4523,13 @@
         <v>190</v>
       </c>
       <c r="B188" s="2">
-        <v>29.96</v>
+        <v>29.33</v>
       </c>
       <c r="C188" s="2">
-        <v>3951792991</v>
+        <v>3908242036</v>
       </c>
       <c r="D188" s="3">
-        <v>66</v>
+        <v>6</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4537,13 +4537,13 @@
         <v>191</v>
       </c>
       <c r="B189" s="2">
-        <v>229.65</v>
+        <v>211.52</v>
       </c>
       <c r="C189" s="2">
-        <v>17648587426</v>
+        <v>16485404066</v>
       </c>
       <c r="D189" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4551,13 +4551,13 @@
         <v>192</v>
       </c>
       <c r="B190" s="2">
-        <v>111.15</v>
+        <v>108.41</v>
       </c>
       <c r="C190" s="2">
-        <v>14096552233</v>
+        <v>14169733504</v>
       </c>
       <c r="D190" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4565,13 +4565,13 @@
         <v>193</v>
       </c>
       <c r="B191" s="2">
-        <v>30.84</v>
+        <v>30.51</v>
       </c>
       <c r="C191" s="2">
-        <v>18431913972</v>
+        <v>18104750630</v>
       </c>
       <c r="D191" s="3">
-        <v>64</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4579,13 +4579,13 @@
         <v>194</v>
       </c>
       <c r="B192" s="2">
-        <v>34.29</v>
+        <v>34.27</v>
       </c>
       <c r="C192" s="2">
-        <v>18476947637</v>
+        <v>18364707017</v>
       </c>
       <c r="D192" s="3">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4593,13 +4593,13 @@
         <v>195</v>
       </c>
       <c r="B193" s="2">
-        <v>147.42</v>
+        <v>147.12</v>
       </c>
       <c r="C193" s="2">
-        <v>25487720246</v>
+        <v>25478779925</v>
       </c>
       <c r="D193" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4607,13 +4607,13 @@
         <v>196</v>
       </c>
       <c r="B194" s="2">
-        <v>104.27</v>
+        <v>97.88</v>
       </c>
       <c r="C194" s="2">
-        <v>7966015921</v>
+        <v>7813885504</v>
       </c>
       <c r="D194" s="3">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4621,13 +4621,13 @@
         <v>197</v>
       </c>
       <c r="B195" s="2">
-        <v>6.84</v>
+        <v>7</v>
       </c>
       <c r="C195" s="2">
-        <v>3080936704</v>
+        <v>3293292589</v>
       </c>
       <c r="D195" s="3">
-        <v>291</v>
+        <v>28</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4635,13 +4635,13 @@
         <v>198</v>
       </c>
       <c r="B196" s="2">
-        <v>59.62</v>
+        <v>58.37</v>
       </c>
       <c r="C196" s="2">
-        <v>9663917098</v>
+        <v>9510404254</v>
       </c>
       <c r="D196" s="3">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4649,13 +4649,13 @@
         <v>199</v>
       </c>
       <c r="B197" s="2">
-        <v>57.4</v>
+        <v>56.8</v>
       </c>
       <c r="C197" s="2">
-        <v>20386651079</v>
+        <v>20225956788</v>
       </c>
       <c r="D197" s="3">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4663,13 +4663,13 @@
         <v>200</v>
       </c>
       <c r="B198" s="2">
-        <v>234.3</v>
+        <v>225.55</v>
       </c>
       <c r="C198" s="2">
-        <v>62213534310</v>
+        <v>61616649224</v>
       </c>
       <c r="D198" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4677,13 +4677,13 @@
         <v>201</v>
       </c>
       <c r="B199" s="2">
-        <v>67.25</v>
+        <v>64.41</v>
       </c>
       <c r="C199" s="2">
-        <v>74008636444</v>
+        <v>72693378653</v>
       </c>
       <c r="D199" s="3">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4691,13 +4691,13 @@
         <v>202</v>
       </c>
       <c r="B200" s="2">
-        <v>64.68000000000001</v>
+        <v>64.08</v>
       </c>
       <c r="C200" s="2">
-        <v>82241503927</v>
+        <v>82067223882</v>
       </c>
       <c r="D200" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4705,13 +4705,13 @@
         <v>203</v>
       </c>
       <c r="B201" s="2">
-        <v>71.19</v>
+        <v>76.17</v>
       </c>
       <c r="C201" s="2">
-        <v>44531857030</v>
+        <v>46843897707</v>
       </c>
       <c r="D201" s="3">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4719,13 +4719,13 @@
         <v>204</v>
       </c>
       <c r="B202" s="2">
-        <v>100.51</v>
+        <v>101.88</v>
       </c>
       <c r="C202" s="2">
-        <v>10013837380</v>
+        <v>9748256564</v>
       </c>
       <c r="D202" s="3">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4733,13 +4733,13 @@
         <v>205</v>
       </c>
       <c r="B203" s="2">
-        <v>34.93</v>
+        <v>33.48</v>
       </c>
       <c r="C203" s="2">
-        <v>28675817236</v>
+        <v>28214405244</v>
       </c>
       <c r="D203" s="3">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4747,13 +4747,13 @@
         <v>206</v>
       </c>
       <c r="B204" s="2">
-        <v>34.76</v>
+        <v>34.56</v>
       </c>
       <c r="C204" s="2">
-        <v>51336832029</v>
+        <v>50915294838</v>
       </c>
       <c r="D204" s="3">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4761,10 +4761,10 @@
         <v>207</v>
       </c>
       <c r="B205" s="2">
-        <v>2376.33</v>
+        <v>2257.68</v>
       </c>
       <c r="C205" s="2">
-        <v>1589183681190</v>
+        <v>1568115179212</v>
       </c>
       <c r="D205" s="3">
         <v>0</v>
@@ -4775,10 +4775,10 @@
         <v>208</v>
       </c>
       <c r="B206" s="2">
-        <v>2414.14</v>
+        <v>2250.28</v>
       </c>
       <c r="C206" s="2">
-        <v>1634503114559</v>
+        <v>1585257371363</v>
       </c>
       <c r="D206" s="3">
         <v>0</v>
@@ -4789,13 +4789,13 @@
         <v>209</v>
       </c>
       <c r="B207" s="2">
-        <v>138.81</v>
+        <v>134.23</v>
       </c>
       <c r="C207" s="2">
-        <v>19845460689</v>
+        <v>19264329179</v>
       </c>
       <c r="D207" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4803,13 +4803,13 @@
         <v>210</v>
       </c>
       <c r="B208" s="2">
-        <v>117.22</v>
+        <v>117.18</v>
       </c>
       <c r="C208" s="2">
-        <v>33035649174</v>
+        <v>32628192357</v>
       </c>
       <c r="D208" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4817,13 +4817,13 @@
         <v>211</v>
       </c>
       <c r="B209" s="2">
-        <v>9.5</v>
+        <v>9.09</v>
       </c>
       <c r="C209" s="2">
-        <v>3482080268</v>
+        <v>3253482912</v>
       </c>
       <c r="D209" s="3">
-        <v>210</v>
+        <v>21</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4831,13 +4831,13 @@
         <v>212</v>
       </c>
       <c r="B210" s="2">
-        <v>103.55</v>
+        <v>103.52</v>
       </c>
       <c r="C210" s="2">
-        <v>19720482409</v>
+        <v>19233843599</v>
       </c>
       <c r="D210" s="3">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4845,13 +4845,13 @@
         <v>213</v>
       </c>
       <c r="B211" s="2">
-        <v>311.82</v>
+        <v>309.96</v>
       </c>
       <c r="C211" s="2">
-        <v>104847015782</v>
+        <v>104292249138</v>
       </c>
       <c r="D211" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4859,13 +4859,13 @@
         <v>214</v>
       </c>
       <c r="B212" s="2">
-        <v>472.51</v>
+        <v>461.24</v>
       </c>
       <c r="C212" s="2">
-        <v>24076535384</v>
+        <v>23502181284</v>
       </c>
       <c r="D212" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4873,13 +4873,13 @@
         <v>215</v>
       </c>
       <c r="B213" s="2">
-        <v>33</v>
+        <v>32.54</v>
       </c>
       <c r="C213" s="2">
-        <v>29155844871</v>
+        <v>29233269334</v>
       </c>
       <c r="D213" s="3">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4887,13 +4887,13 @@
         <v>216</v>
       </c>
       <c r="B214" s="2">
-        <v>86.22</v>
+        <v>86.68000000000001</v>
       </c>
       <c r="C214" s="2">
-        <v>12374425607</v>
+        <v>11813479879</v>
       </c>
       <c r="D214" s="3">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4901,13 +4901,13 @@
         <v>217</v>
       </c>
       <c r="B215" s="2">
-        <v>12.94</v>
+        <v>12.7</v>
       </c>
       <c r="C215" s="2">
-        <v>18117693006</v>
+        <v>17915654492</v>
       </c>
       <c r="D215" s="3">
-        <v>154</v>
+        <v>15</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4915,13 +4915,13 @@
         <v>218</v>
       </c>
       <c r="B216" s="2">
-        <v>10.82</v>
+        <v>10.77</v>
       </c>
       <c r="C216" s="2">
-        <v>3747969033</v>
+        <v>3714781030</v>
       </c>
       <c r="D216" s="3">
-        <v>184</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4929,13 +4929,13 @@
         <v>219</v>
       </c>
       <c r="B217" s="2">
-        <v>181.91</v>
+        <v>175.72</v>
       </c>
       <c r="C217" s="2">
-        <v>53525894105</v>
+        <v>53434763677</v>
       </c>
       <c r="D217" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4943,13 +4943,13 @@
         <v>220</v>
       </c>
       <c r="B218" s="2">
-        <v>286.69</v>
+        <v>274.74</v>
       </c>
       <c r="C218" s="2">
-        <v>301294035521</v>
+        <v>289143325174</v>
       </c>
       <c r="D218" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4957,13 +4957,13 @@
         <v>221</v>
       </c>
       <c r="B219" s="2">
-        <v>108.08</v>
+        <v>112.31</v>
       </c>
       <c r="C219" s="2">
-        <v>34422399084</v>
+        <v>34985920181</v>
       </c>
       <c r="D219" s="3">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4971,13 +4971,13 @@
         <v>222</v>
       </c>
       <c r="B220" s="2">
-        <v>66.42</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="C220" s="2">
-        <v>22183303033</v>
+        <v>22342299479</v>
       </c>
       <c r="D220" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4985,13 +4985,13 @@
         <v>223</v>
       </c>
       <c r="B221" s="2">
-        <v>222.44</v>
+        <v>225.34</v>
       </c>
       <c r="C221" s="2">
-        <v>8771578168</v>
+        <v>8669079607</v>
       </c>
       <c r="D221" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4999,13 +4999,13 @@
         <v>224</v>
       </c>
       <c r="B222" s="2">
-        <v>121.9</v>
+        <v>114.25</v>
       </c>
       <c r="C222" s="2">
-        <v>33404336925</v>
+        <v>32503618774</v>
       </c>
       <c r="D222" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5013,13 +5013,13 @@
         <v>225</v>
       </c>
       <c r="B223" s="2">
-        <v>73.29000000000001</v>
+        <v>72.81</v>
       </c>
       <c r="C223" s="2">
-        <v>18401156579</v>
+        <v>18363753497</v>
       </c>
       <c r="D223" s="3">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5027,13 +5027,13 @@
         <v>226</v>
       </c>
       <c r="B224" s="2">
-        <v>180.4</v>
+        <v>174.6</v>
       </c>
       <c r="C224" s="2">
-        <v>124241118966</v>
+        <v>122280996052</v>
       </c>
       <c r="D224" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5041,13 +5041,13 @@
         <v>227</v>
       </c>
       <c r="B225" s="2">
-        <v>14.41</v>
+        <v>13.55</v>
       </c>
       <c r="C225" s="2">
-        <v>18790592083</v>
+        <v>17679509894</v>
       </c>
       <c r="D225" s="3">
-        <v>138</v>
+        <v>14</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5055,13 +5055,13 @@
         <v>228</v>
       </c>
       <c r="B226" s="2">
-        <v>36.11</v>
+        <v>34.64</v>
       </c>
       <c r="C226" s="2">
-        <v>37956568955</v>
+        <v>36255063495</v>
       </c>
       <c r="D226" s="3">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5069,13 +5069,13 @@
         <v>229</v>
       </c>
       <c r="B227" s="2">
-        <v>36.93</v>
+        <v>35.93</v>
       </c>
       <c r="C227" s="2">
-        <v>5751349738</v>
+        <v>5545822105</v>
       </c>
       <c r="D227" s="3">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5083,13 +5083,13 @@
         <v>230</v>
       </c>
       <c r="B228" s="2">
-        <v>47.57</v>
+        <v>49.76</v>
       </c>
       <c r="C228" s="2">
-        <v>26699013039</v>
+        <v>27396922560</v>
       </c>
       <c r="D228" s="3">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5097,13 +5097,13 @@
         <v>231</v>
       </c>
       <c r="B229" s="2">
-        <v>78.28</v>
+        <v>78.5</v>
       </c>
       <c r="C229" s="2">
-        <v>11003265653</v>
+        <v>10953441234</v>
       </c>
       <c r="D229" s="3">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5111,13 +5111,13 @@
         <v>232</v>
       </c>
       <c r="B230" s="2">
-        <v>16.6</v>
+        <v>16.3</v>
       </c>
       <c r="C230" s="2">
-        <v>11640454566</v>
+        <v>11257318249</v>
       </c>
       <c r="D230" s="3">
-        <v>120</v>
+        <v>12</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5125,13 +5125,13 @@
         <v>233</v>
       </c>
       <c r="B231" s="2">
-        <v>229.13</v>
+        <v>219.69</v>
       </c>
       <c r="C231" s="2">
-        <v>47753574268</v>
+        <v>46864476871</v>
       </c>
       <c r="D231" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5139,13 +5139,13 @@
         <v>234</v>
       </c>
       <c r="B232" s="2">
-        <v>480.07</v>
+        <v>484.62</v>
       </c>
       <c r="C232" s="2">
-        <v>59807041529</v>
+        <v>60661522171</v>
       </c>
       <c r="D232" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5153,13 +5153,13 @@
         <v>235</v>
       </c>
       <c r="B233" s="2">
-        <v>33.1</v>
+        <v>32.19</v>
       </c>
       <c r="C233" s="2">
-        <v>13671923563</v>
+        <v>13475538419</v>
       </c>
       <c r="D233" s="3">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5167,13 +5167,13 @@
         <v>236</v>
       </c>
       <c r="B234" s="2">
-        <v>143.8</v>
+        <v>141.49</v>
       </c>
       <c r="C234" s="2">
-        <v>131036527836</v>
+        <v>130015208783</v>
       </c>
       <c r="D234" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5181,13 +5181,13 @@
         <v>237</v>
       </c>
       <c r="B235" s="2">
-        <v>98.7</v>
+        <v>100.81</v>
       </c>
       <c r="C235" s="2">
-        <v>55228927811</v>
+        <v>54904073953</v>
       </c>
       <c r="D235" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5195,13 +5195,13 @@
         <v>238</v>
       </c>
       <c r="B236" s="2">
-        <v>361.03</v>
+        <v>363.47</v>
       </c>
       <c r="C236" s="2">
-        <v>30913028617</v>
+        <v>30204628285</v>
       </c>
       <c r="D236" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5209,13 +5209,13 @@
         <v>239</v>
       </c>
       <c r="B237" s="2">
-        <v>189.45</v>
+        <v>185.73</v>
       </c>
       <c r="C237" s="2">
-        <v>14008014074</v>
+        <v>14324617894</v>
       </c>
       <c r="D237" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5223,13 +5223,13 @@
         <v>240</v>
       </c>
       <c r="B238" s="2">
-        <v>120.54</v>
+        <v>120.86</v>
       </c>
       <c r="C238" s="2">
-        <v>31168009437</v>
+        <v>30120571179</v>
       </c>
       <c r="D238" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5237,13 +5237,13 @@
         <v>241</v>
       </c>
       <c r="B239" s="2">
-        <v>200.52</v>
+        <v>192.89</v>
       </c>
       <c r="C239" s="2">
-        <v>31610477438</v>
+        <v>30312040352</v>
       </c>
       <c r="D239" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5251,13 +5251,13 @@
         <v>242</v>
       </c>
       <c r="B240" s="2">
-        <v>81.15000000000001</v>
+        <v>78.48999999999999</v>
       </c>
       <c r="C240" s="2">
-        <v>17785789568</v>
+        <v>16963906906</v>
       </c>
       <c r="D240" s="3">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5265,13 +5265,13 @@
         <v>243</v>
       </c>
       <c r="B241" s="2">
-        <v>111.98</v>
+        <v>110.31</v>
       </c>
       <c r="C241" s="2">
-        <v>47830653704</v>
+        <v>47870688427</v>
       </c>
       <c r="D241" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5279,13 +5279,13 @@
         <v>244</v>
       </c>
       <c r="B242" s="2">
-        <v>38.77</v>
+        <v>37.89</v>
       </c>
       <c r="C242" s="2">
-        <v>158379179934</v>
+        <v>159568056069</v>
       </c>
       <c r="D242" s="3">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5293,13 +5293,13 @@
         <v>245</v>
       </c>
       <c r="B243" s="2">
-        <v>418.329</v>
+        <v>404.09</v>
       </c>
       <c r="C243" s="2">
-        <v>114329430872</v>
+        <v>110560676431</v>
       </c>
       <c r="D243" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5307,13 +5307,13 @@
         <v>246</v>
       </c>
       <c r="B244" s="2">
-        <v>44.04</v>
+        <v>44</v>
       </c>
       <c r="C244" s="2">
-        <v>16641535482</v>
+        <v>15742132140</v>
       </c>
       <c r="D244" s="3">
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5321,13 +5321,13 @@
         <v>247</v>
       </c>
       <c r="B245" s="2">
-        <v>29</v>
+        <v>28.29</v>
       </c>
       <c r="C245" s="2">
-        <v>11568877873</v>
+        <v>10839352562</v>
       </c>
       <c r="D245" s="3">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5335,13 +5335,13 @@
         <v>248</v>
       </c>
       <c r="B246" s="2">
-        <v>101.11</v>
+        <v>94.98</v>
       </c>
       <c r="C246" s="2">
-        <v>5073102436</v>
+        <v>5084072850</v>
       </c>
       <c r="D246" s="3">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5349,13 +5349,13 @@
         <v>249</v>
       </c>
       <c r="B247" s="2">
-        <v>220.57</v>
+        <v>219.83</v>
       </c>
       <c r="C247" s="2">
-        <v>42545648050</v>
+        <v>41251406704</v>
       </c>
       <c r="D247" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5363,13 +5363,13 @@
         <v>250</v>
       </c>
       <c r="B248" s="2">
-        <v>45.17</v>
+        <v>42.68</v>
       </c>
       <c r="C248" s="2">
-        <v>17968068761</v>
+        <v>17967450801</v>
       </c>
       <c r="D248" s="3">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5377,13 +5377,13 @@
         <v>251</v>
       </c>
       <c r="B249" s="2">
-        <v>52.35</v>
+        <v>49.92</v>
       </c>
       <c r="C249" s="2">
-        <v>14903102815</v>
+        <v>14435859603</v>
       </c>
       <c r="D249" s="3">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5391,13 +5391,13 @@
         <v>252</v>
       </c>
       <c r="B250" s="2">
-        <v>210.55</v>
+        <v>209.67</v>
       </c>
       <c r="C250" s="2">
-        <v>75143802260</v>
+        <v>74558794452</v>
       </c>
       <c r="D250" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5405,13 +5405,13 @@
         <v>253</v>
       </c>
       <c r="B251" s="2">
-        <v>259.43</v>
+        <v>248.82</v>
       </c>
       <c r="C251" s="2">
-        <v>20756869559</v>
+        <v>19374978455</v>
       </c>
       <c r="D251" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5419,13 +5419,13 @@
         <v>254</v>
       </c>
       <c r="B252" s="2">
-        <v>193.6</v>
+        <v>188.75</v>
       </c>
       <c r="C252" s="2">
-        <v>60493952947</v>
+        <v>56553474097</v>
       </c>
       <c r="D252" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5433,13 +5433,13 @@
         <v>255</v>
       </c>
       <c r="B253" s="2">
-        <v>18.06</v>
+        <v>16.73</v>
       </c>
       <c r="C253" s="2">
-        <v>8065649910</v>
+        <v>7607382309</v>
       </c>
       <c r="D253" s="3">
-        <v>110</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5447,13 +5447,13 @@
         <v>256</v>
       </c>
       <c r="B254" s="2">
-        <v>129.13</v>
+        <v>127.25</v>
       </c>
       <c r="C254" s="2">
-        <v>16690736239</v>
+        <v>16626804878</v>
       </c>
       <c r="D254" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5461,13 +5461,13 @@
         <v>257</v>
       </c>
       <c r="B255" s="2">
-        <v>169.72</v>
+        <v>164.7</v>
       </c>
       <c r="C255" s="2">
-        <v>17298197364</v>
+        <v>17283298953</v>
       </c>
       <c r="D255" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5475,13 +5475,13 @@
         <v>258</v>
       </c>
       <c r="B256" s="2">
-        <v>50.6</v>
+        <v>48.84</v>
       </c>
       <c r="C256" s="2">
-        <v>33982967759</v>
+        <v>35133194699</v>
       </c>
       <c r="D256" s="3">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5489,13 +5489,13 @@
         <v>259</v>
       </c>
       <c r="B257" s="2">
-        <v>189.7</v>
+        <v>187.26</v>
       </c>
       <c r="C257" s="2">
-        <v>13734594030</v>
+        <v>13840408416</v>
       </c>
       <c r="D257" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5503,13 +5503,13 @@
         <v>260</v>
       </c>
       <c r="B258" s="2">
-        <v>189.47</v>
+        <v>183.57</v>
       </c>
       <c r="C258" s="2">
-        <v>488840783596</v>
+        <v>488270146210</v>
       </c>
       <c r="D258" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5517,13 +5517,13 @@
         <v>261</v>
       </c>
       <c r="B259" s="2">
-        <v>30.25</v>
+        <v>29.01</v>
       </c>
       <c r="C259" s="2">
-        <v>9547264630</v>
+        <v>9389772306</v>
       </c>
       <c r="D259" s="3">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5531,13 +5531,13 @@
         <v>262</v>
       </c>
       <c r="B260" s="2">
-        <v>121.97</v>
+        <v>118.3</v>
       </c>
       <c r="C260" s="2">
-        <v>348885211940</v>
+        <v>354547125475</v>
       </c>
       <c r="D260" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5545,13 +5545,13 @@
         <v>263</v>
       </c>
       <c r="B261" s="2">
-        <v>71.54000000000001</v>
+        <v>71.97</v>
       </c>
       <c r="C261" s="2">
-        <v>24659989718</v>
+        <v>24583980556</v>
       </c>
       <c r="D261" s="3">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5559,13 +5559,13 @@
         <v>264</v>
       </c>
       <c r="B262" s="2">
-        <v>17.87</v>
+        <v>17.84</v>
       </c>
       <c r="C262" s="2">
-        <v>16901385524</v>
+        <v>17013184452</v>
       </c>
       <c r="D262" s="3">
-        <v>111</v>
+        <v>11</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5573,13 +5573,13 @@
         <v>265</v>
       </c>
       <c r="B263" s="2">
-        <v>147.28</v>
+        <v>141.6</v>
       </c>
       <c r="C263" s="2">
-        <v>25804071304</v>
+        <v>25782960871</v>
       </c>
       <c r="D263" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5587,13 +5587,13 @@
         <v>266</v>
       </c>
       <c r="B264" s="2">
-        <v>38.92</v>
+        <v>38.2</v>
       </c>
       <c r="C264" s="2">
-        <v>47890674070</v>
+        <v>46520340527</v>
       </c>
       <c r="D264" s="3">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5601,13 +5601,13 @@
         <v>267</v>
       </c>
       <c r="B265" s="2">
-        <v>20.4</v>
+        <v>20.48</v>
       </c>
       <c r="C265" s="2">
-        <v>12612921614</v>
+        <v>12617826300</v>
       </c>
       <c r="D265" s="3">
-        <v>97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5615,13 +5615,13 @@
         <v>268</v>
       </c>
       <c r="B266" s="2">
-        <v>348.9</v>
+        <v>334.09</v>
       </c>
       <c r="C266" s="2">
-        <v>51275229281</v>
+        <v>47962075105</v>
       </c>
       <c r="D266" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5629,13 +5629,13 @@
         <v>269</v>
       </c>
       <c r="B267" s="2">
-        <v>135.03</v>
+        <v>136.87</v>
       </c>
       <c r="C267" s="2">
-        <v>46269872439</v>
+        <v>46870296386</v>
       </c>
       <c r="D267" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5643,13 +5643,13 @@
         <v>270</v>
       </c>
       <c r="B268" s="2">
-        <v>17.37</v>
+        <v>17.62</v>
       </c>
       <c r="C268" s="2">
-        <v>39992300876</v>
+        <v>38476263890</v>
       </c>
       <c r="D268" s="3">
-        <v>114</v>
+        <v>11</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5657,13 +5657,13 @@
         <v>271</v>
       </c>
       <c r="B269" s="2">
-        <v>100.39</v>
+        <v>95.06</v>
       </c>
       <c r="C269" s="2">
-        <v>15912628209</v>
+        <v>15030159543</v>
       </c>
       <c r="D269" s="3">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5671,13 +5671,13 @@
         <v>272</v>
       </c>
       <c r="B270" s="2">
-        <v>62.91</v>
+        <v>63.55</v>
       </c>
       <c r="C270" s="2">
-        <v>282605540460</v>
+        <v>274802744014</v>
       </c>
       <c r="D270" s="3">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5685,13 +5685,13 @@
         <v>273</v>
       </c>
       <c r="B271" s="2">
-        <v>49.3</v>
+        <v>50.48</v>
       </c>
       <c r="C271" s="2">
-        <v>35561311599</v>
+        <v>34753511545</v>
       </c>
       <c r="D271" s="3">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5699,13 +5699,13 @@
         <v>274</v>
       </c>
       <c r="B272" s="2">
-        <v>39.51</v>
+        <v>36.27</v>
       </c>
       <c r="C272" s="2">
-        <v>5001178044</v>
+        <v>4622502980</v>
       </c>
       <c r="D272" s="3">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5713,13 +5713,13 @@
         <v>275</v>
       </c>
       <c r="B273" s="2">
-        <v>303.67</v>
+        <v>307.05</v>
       </c>
       <c r="C273" s="2">
-        <v>27260643420</v>
+        <v>27354588109</v>
       </c>
       <c r="D273" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5727,13 +5727,13 @@
         <v>276</v>
       </c>
       <c r="B274" s="2">
-        <v>61.58</v>
+        <v>60.41</v>
       </c>
       <c r="C274" s="2">
-        <v>14929626860</v>
+        <v>14699978391</v>
       </c>
       <c r="D274" s="3">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5741,13 +5741,13 @@
         <v>277</v>
       </c>
       <c r="B275" s="2">
-        <v>81.92</v>
+        <v>82.66</v>
       </c>
       <c r="C275" s="2">
-        <v>22286673506</v>
+        <v>22415040994</v>
       </c>
       <c r="D275" s="3">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5755,13 +5755,13 @@
         <v>278</v>
       </c>
       <c r="B276" s="2">
-        <v>105.39</v>
+        <v>100.62</v>
       </c>
       <c r="C276" s="2">
-        <v>13906217073</v>
+        <v>14062085261</v>
       </c>
       <c r="D276" s="3">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5769,13 +5769,13 @@
         <v>279</v>
       </c>
       <c r="B277" s="2">
-        <v>36.89</v>
+        <v>34.87</v>
       </c>
       <c r="C277" s="2">
-        <v>4845052720</v>
+        <v>4743479626</v>
       </c>
       <c r="D277" s="3">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5783,13 +5783,13 @@
         <v>280</v>
       </c>
       <c r="B278" s="2">
-        <v>74.95999999999999</v>
+        <v>70.92</v>
       </c>
       <c r="C278" s="2">
-        <v>21432301121</v>
+        <v>20514302566</v>
       </c>
       <c r="D278" s="3">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5797,13 +5797,13 @@
         <v>281</v>
       </c>
       <c r="B279" s="2">
-        <v>249.45</v>
+        <v>244</v>
       </c>
       <c r="C279" s="2">
-        <v>22378681122</v>
+        <v>22443234908</v>
       </c>
       <c r="D279" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5811,13 +5811,13 @@
         <v>282</v>
       </c>
       <c r="B280" s="2">
-        <v>244.45</v>
+        <v>243.09</v>
       </c>
       <c r="C280" s="2">
-        <v>46706802657</v>
+        <v>47073452859</v>
       </c>
       <c r="D280" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5825,13 +5825,13 @@
         <v>283</v>
       </c>
       <c r="B281" s="2">
-        <v>302.62</v>
+        <v>300.56</v>
       </c>
       <c r="C281" s="2">
-        <v>150099765714</v>
+        <v>152274384788</v>
       </c>
       <c r="D281" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5839,13 +5839,13 @@
         <v>284</v>
       </c>
       <c r="B282" s="2">
-        <v>51.955</v>
+        <v>51.06</v>
       </c>
       <c r="C282" s="2">
-        <v>14827352339</v>
+        <v>14228368474</v>
       </c>
       <c r="D282" s="3">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5853,13 +5853,13 @@
         <v>285</v>
       </c>
       <c r="B283" s="2">
-        <v>331.08</v>
+        <v>329</v>
       </c>
       <c r="C283" s="2">
-        <v>311166777840</v>
+        <v>319322424178</v>
       </c>
       <c r="D283" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5867,13 +5867,13 @@
         <v>286</v>
       </c>
       <c r="B284" s="2">
-        <v>434.66</v>
+        <v>426.15</v>
       </c>
       <c r="C284" s="2">
-        <v>112759421659</v>
+        <v>113160829082</v>
       </c>
       <c r="D284" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5881,13 +5881,13 @@
         <v>287</v>
       </c>
       <c r="B285" s="2">
-        <v>50.25</v>
+        <v>49.61</v>
       </c>
       <c r="C285" s="2">
-        <v>8709961997</v>
+        <v>8504713291</v>
       </c>
       <c r="D285" s="3">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5895,13 +5895,13 @@
         <v>288</v>
       </c>
       <c r="B286" s="2">
-        <v>59.68</v>
+        <v>58.21</v>
       </c>
       <c r="C286" s="2">
-        <v>14940335477</v>
+        <v>15263598437</v>
       </c>
       <c r="D286" s="3">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5909,13 +5909,13 @@
         <v>289</v>
       </c>
       <c r="B287" s="2">
-        <v>190.29</v>
+        <v>181.4</v>
       </c>
       <c r="C287" s="2">
-        <v>122661155762</v>
+        <v>116208285606</v>
       </c>
       <c r="D287" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5923,13 +5923,13 @@
         <v>290</v>
       </c>
       <c r="B288" s="2">
-        <v>454.07</v>
+        <v>445.53</v>
       </c>
       <c r="C288" s="2">
-        <v>64817555398</v>
+        <v>62143009615</v>
       </c>
       <c r="D288" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5937,13 +5937,13 @@
         <v>291</v>
       </c>
       <c r="B289" s="2">
-        <v>38.06</v>
+        <v>36.92</v>
       </c>
       <c r="C289" s="2">
-        <v>22787156470</v>
+        <v>22476529647</v>
       </c>
       <c r="D289" s="3">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5951,13 +5951,13 @@
         <v>292</v>
       </c>
       <c r="B290" s="2">
-        <v>33.75</v>
+        <v>34.69</v>
       </c>
       <c r="C290" s="2">
-        <v>25739488451</v>
+        <v>26520071788</v>
       </c>
       <c r="D290" s="3">
-        <v>59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5965,13 +5965,13 @@
         <v>293</v>
       </c>
       <c r="B291" s="2">
-        <v>73.37</v>
+        <v>75.36</v>
       </c>
       <c r="C291" s="2">
-        <v>10499481326</v>
+        <v>10590982771</v>
       </c>
       <c r="D291" s="3">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5979,13 +5979,13 @@
         <v>294</v>
       </c>
       <c r="B292" s="2">
-        <v>90.75</v>
+        <v>88.23999999999999</v>
       </c>
       <c r="C292" s="2">
-        <v>29942196387</v>
+        <v>30150253378</v>
       </c>
       <c r="D292" s="3">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5993,13 +5993,13 @@
         <v>295</v>
       </c>
       <c r="B293" s="2">
-        <v>85.89</v>
+        <v>84</v>
       </c>
       <c r="C293" s="2">
-        <v>19760766959</v>
+        <v>19839389999</v>
       </c>
       <c r="D293" s="3">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6007,13 +6007,13 @@
         <v>296</v>
       </c>
       <c r="B294" s="2">
-        <v>337.81</v>
+        <v>327.43</v>
       </c>
       <c r="C294" s="2">
-        <v>332314658004</v>
+        <v>315347049120</v>
       </c>
       <c r="D294" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6021,13 +6021,13 @@
         <v>297</v>
       </c>
       <c r="B295" s="2">
-        <v>176.6</v>
+        <v>173.66</v>
       </c>
       <c r="C295" s="2">
-        <v>20948683082</v>
+        <v>20946046215</v>
       </c>
       <c r="D295" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6035,13 +6035,13 @@
         <v>298</v>
       </c>
       <c r="B296" s="2">
-        <v>143.9</v>
+        <v>143.56</v>
       </c>
       <c r="C296" s="2">
-        <v>47912852829</v>
+        <v>46834574682</v>
       </c>
       <c r="D296" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6049,13 +6049,13 @@
         <v>299</v>
       </c>
       <c r="B297" s="2">
-        <v>53.05</v>
+        <v>52.82</v>
       </c>
       <c r="C297" s="2">
-        <v>12669174257</v>
+        <v>12269488169</v>
       </c>
       <c r="D297" s="3">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6063,13 +6063,13 @@
         <v>300</v>
       </c>
       <c r="B298" s="2">
-        <v>248.89</v>
+        <v>251.79</v>
       </c>
       <c r="C298" s="2">
-        <v>185148917346</v>
+        <v>189878701581</v>
       </c>
       <c r="D298" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6077,13 +6077,13 @@
         <v>301</v>
       </c>
       <c r="B299" s="2">
-        <v>61.45</v>
+        <v>60.74</v>
       </c>
       <c r="C299" s="2">
-        <v>33654615862</v>
+        <v>32306706108</v>
       </c>
       <c r="D299" s="3">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6091,13 +6091,13 @@
         <v>302</v>
       </c>
       <c r="B300" s="2">
-        <v>337.99</v>
+        <v>343.4</v>
       </c>
       <c r="C300" s="2">
-        <v>47503800813</v>
+        <v>48410260389</v>
       </c>
       <c r="D300" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6105,13 +6105,13 @@
         <v>303</v>
       </c>
       <c r="B301" s="2">
-        <v>284.4</v>
+        <v>275.6</v>
       </c>
       <c r="C301" s="2">
-        <v>53297554532</v>
+        <v>52278282248</v>
       </c>
       <c r="D301" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6119,13 +6119,13 @@
         <v>304</v>
       </c>
       <c r="B302" s="2">
-        <v>64.5</v>
+        <v>63.96</v>
       </c>
       <c r="C302" s="2">
-        <v>87523862539</v>
+        <v>88610934929</v>
       </c>
       <c r="D302" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6133,13 +6133,13 @@
         <v>305</v>
       </c>
       <c r="B303" s="2">
-        <v>92.47</v>
+        <v>91.91</v>
       </c>
       <c r="C303" s="2">
-        <v>124696671911</v>
+        <v>122499922628</v>
       </c>
       <c r="D303" s="3">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6147,13 +6147,13 @@
         <v>306</v>
       </c>
       <c r="B304" s="2">
-        <v>65.09999999999999</v>
+        <v>65.25</v>
       </c>
       <c r="C304" s="2">
-        <v>52434016421</v>
+        <v>52279631008</v>
       </c>
       <c r="D304" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6161,13 +6161,13 @@
         <v>307</v>
       </c>
       <c r="B305" s="2">
-        <v>30.53</v>
+        <v>29.75</v>
       </c>
       <c r="C305" s="2">
-        <v>13226829191</v>
+        <v>12974284889</v>
       </c>
       <c r="D305" s="3">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6175,13 +6175,13 @@
         <v>308</v>
       </c>
       <c r="B306" s="2">
-        <v>130.89</v>
+        <v>132.6</v>
       </c>
       <c r="C306" s="2">
-        <v>8367505667</v>
+        <v>8292176117</v>
       </c>
       <c r="D306" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6189,13 +6189,13 @@
         <v>309</v>
       </c>
       <c r="B307" s="2">
-        <v>89.12</v>
+        <v>86.43000000000001</v>
       </c>
       <c r="C307" s="2">
-        <v>24377895630</v>
+        <v>23593267031</v>
       </c>
       <c r="D307" s="3">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6203,13 +6203,13 @@
         <v>310</v>
       </c>
       <c r="B308" s="2">
-        <v>279.21</v>
+        <v>271.21</v>
       </c>
       <c r="C308" s="2">
-        <v>10235777976</v>
+        <v>10084971972</v>
       </c>
       <c r="D308" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6217,13 +6217,13 @@
         <v>311</v>
       </c>
       <c r="B309" s="2">
-        <v>320.41</v>
+        <v>310.1</v>
       </c>
       <c r="C309" s="2">
-        <v>19846094478</v>
+        <v>19343664659</v>
       </c>
       <c r="D309" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6231,13 +6231,13 @@
         <v>312</v>
       </c>
       <c r="B310" s="2">
-        <v>165.6</v>
+        <v>161.19</v>
       </c>
       <c r="C310" s="2">
-        <v>80136608319</v>
+        <v>80240015932</v>
       </c>
       <c r="D310" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6245,13 +6245,13 @@
         <v>313</v>
       </c>
       <c r="B311" s="2">
-        <v>133</v>
+        <v>134.32</v>
       </c>
       <c r="C311" s="2">
-        <v>78040527332</v>
+        <v>76539684967</v>
       </c>
       <c r="D311" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6259,13 +6259,13 @@
         <v>314</v>
       </c>
       <c r="B312" s="2">
-        <v>94.84</v>
+        <v>93.59</v>
       </c>
       <c r="C312" s="2">
-        <v>52377237478</v>
+        <v>50358899389</v>
       </c>
       <c r="D312" s="3">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6273,13 +6273,13 @@
         <v>315</v>
       </c>
       <c r="B313" s="2">
-        <v>43.81</v>
+        <v>41.91</v>
       </c>
       <c r="C313" s="2">
-        <v>82084093962</v>
+        <v>76337829342</v>
       </c>
       <c r="D313" s="3">
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6287,13 +6287,13 @@
         <v>316</v>
       </c>
       <c r="B314" s="2">
-        <v>50.45</v>
+        <v>49.03</v>
       </c>
       <c r="C314" s="2">
-        <v>18053913990</v>
+        <v>18262044068</v>
       </c>
       <c r="D314" s="3">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6301,13 +6301,13 @@
         <v>317</v>
       </c>
       <c r="B315" s="2">
-        <v>91.26000000000001</v>
+        <v>88.55</v>
       </c>
       <c r="C315" s="2">
-        <v>49391926785</v>
+        <v>46349315011</v>
       </c>
       <c r="D315" s="3">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6315,13 +6315,13 @@
         <v>318</v>
       </c>
       <c r="B316" s="2">
-        <v>96.36</v>
+        <v>95.84</v>
       </c>
       <c r="C316" s="2">
-        <v>239493934731</v>
+        <v>235471199273</v>
       </c>
       <c r="D316" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6329,13 +6329,13 @@
         <v>319</v>
       </c>
       <c r="B317" s="2">
-        <v>23.29</v>
+        <v>23.1</v>
       </c>
       <c r="C317" s="2">
-        <v>16520170514</v>
+        <v>16487532581</v>
       </c>
       <c r="D317" s="3">
-        <v>85</v>
+        <v>8</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6343,13 +6343,13 @@
         <v>320</v>
       </c>
       <c r="B318" s="2">
-        <v>80.67</v>
+        <v>82.03</v>
       </c>
       <c r="C318" s="2">
-        <v>139199203721</v>
+        <v>141801810300</v>
       </c>
       <c r="D318" s="3">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6357,13 +6357,13 @@
         <v>321</v>
       </c>
       <c r="B319" s="2">
-        <v>444.93</v>
+        <v>431.2</v>
       </c>
       <c r="C319" s="2">
-        <v>36460169592</v>
+        <v>33863499537</v>
       </c>
       <c r="D319" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6371,13 +6371,13 @@
         <v>322</v>
       </c>
       <c r="B320" s="2">
-        <v>268.14</v>
+        <v>270.9</v>
       </c>
       <c r="C320" s="2">
-        <v>2036771048395</v>
+        <v>2038550834875</v>
       </c>
       <c r="D320" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6385,13 +6385,13 @@
         <v>323</v>
       </c>
       <c r="B321" s="2">
-        <v>222.81</v>
+        <v>216.52</v>
       </c>
       <c r="C321" s="2">
-        <v>36638769964</v>
+        <v>36705224285</v>
       </c>
       <c r="D321" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6399,13 +6399,13 @@
         <v>324</v>
       </c>
       <c r="B322" s="2">
-        <v>170.08</v>
+        <v>169.58</v>
       </c>
       <c r="C322" s="2">
-        <v>30772904681</v>
+        <v>29867371957</v>
       </c>
       <c r="D322" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6413,13 +6413,13 @@
         <v>325</v>
       </c>
       <c r="B323" s="2">
-        <v>1154.15</v>
+        <v>1175.59</v>
       </c>
       <c r="C323" s="2">
-        <v>26546846715</v>
+        <v>26962170653</v>
       </c>
       <c r="D323" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6427,13 +6427,13 @@
         <v>326</v>
       </c>
       <c r="B324" s="2">
-        <v>59.54</v>
+        <v>56.81</v>
       </c>
       <c r="C324" s="2">
-        <v>67667135414</v>
+        <v>63635838478</v>
       </c>
       <c r="D324" s="3">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6441,13 +6441,13 @@
         <v>327</v>
       </c>
       <c r="B325" s="2">
-        <v>107.9</v>
+        <v>106.62</v>
       </c>
       <c r="C325" s="2">
-        <v>28593763940</v>
+        <v>28189485142</v>
       </c>
       <c r="D325" s="3">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6455,13 +6455,13 @@
         <v>328</v>
       </c>
       <c r="B326" s="2">
-        <v>15.922</v>
+        <v>16.184</v>
       </c>
       <c r="C326" s="2">
-        <v>8772712412</v>
+        <v>8657189428</v>
       </c>
       <c r="D326" s="3">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6469,13 +6469,13 @@
         <v>329</v>
       </c>
       <c r="B327" s="2">
-        <v>8.539999999999999</v>
+        <v>8.65</v>
       </c>
       <c r="C327" s="2">
-        <v>4171365235</v>
+        <v>4146270681</v>
       </c>
       <c r="D327" s="3">
-        <v>233</v>
+        <v>23</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6483,13 +6483,13 @@
         <v>330</v>
       </c>
       <c r="B328" s="2">
-        <v>12.91</v>
+        <v>11.83</v>
       </c>
       <c r="C328" s="2">
-        <v>2852555280</v>
+        <v>2584425663</v>
       </c>
       <c r="D328" s="3">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6497,13 +6497,13 @@
         <v>331</v>
       </c>
       <c r="B329" s="2">
-        <v>159.4</v>
+        <v>157.88</v>
       </c>
       <c r="C329" s="2">
-        <v>15299386573</v>
+        <v>14674618565</v>
       </c>
       <c r="D329" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6514,10 +6514,10 @@
         <v>78</v>
       </c>
       <c r="C330" s="2">
-        <v>157534805463</v>
+        <v>155910749094</v>
       </c>
       <c r="D330" s="3">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6525,13 +6525,13 @@
         <v>333</v>
       </c>
       <c r="B331" s="2">
-        <v>66.34</v>
+        <v>63.33</v>
       </c>
       <c r="C331" s="2">
-        <v>51522436311</v>
+        <v>51640946921</v>
       </c>
       <c r="D331" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6539,13 +6539,13 @@
         <v>334</v>
       </c>
       <c r="B332" s="2">
-        <v>193.74</v>
+        <v>183.02</v>
       </c>
       <c r="C332" s="2">
-        <v>86622858667</v>
+        <v>79312351288</v>
       </c>
       <c r="D332" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6553,13 +6553,13 @@
         <v>335</v>
       </c>
       <c r="B333" s="2">
-        <v>29.33</v>
+        <v>30.46</v>
       </c>
       <c r="C333" s="2">
-        <v>12023866090</v>
+        <v>12201299798</v>
       </c>
       <c r="D333" s="3">
-        <v>68</v>
+        <v>6</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6567,13 +6567,13 @@
         <v>336</v>
       </c>
       <c r="B334" s="2">
-        <v>112.6</v>
+        <v>107.41</v>
       </c>
       <c r="C334" s="2">
-        <v>177907575745</v>
+        <v>167076372430</v>
       </c>
       <c r="D334" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6581,13 +6581,13 @@
         <v>337</v>
       </c>
       <c r="B335" s="2">
-        <v>23.8</v>
+        <v>22.8</v>
       </c>
       <c r="C335" s="2">
-        <v>13251779930</v>
+        <v>13332853535</v>
       </c>
       <c r="D335" s="3">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6595,13 +6595,13 @@
         <v>338</v>
       </c>
       <c r="B336" s="2">
-        <v>24.85</v>
+        <v>24.12</v>
       </c>
       <c r="C336" s="2">
-        <v>8960668802</v>
+        <v>8807948652</v>
       </c>
       <c r="D336" s="3">
-        <v>80</v>
+        <v>8</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6609,13 +6609,13 @@
         <v>339</v>
       </c>
       <c r="B337" s="2">
-        <v>470.82</v>
+        <v>465</v>
       </c>
       <c r="C337" s="2">
-        <v>74340795001</v>
+        <v>74292563695</v>
       </c>
       <c r="D337" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6623,13 +6623,13 @@
         <v>340</v>
       </c>
       <c r="B338" s="2">
-        <v>16.8</v>
+        <v>17.3</v>
       </c>
       <c r="C338" s="2">
-        <v>6563108744</v>
+        <v>6991408164</v>
       </c>
       <c r="D338" s="3">
-        <v>118</v>
+        <v>11</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6637,13 +6637,13 @@
         <v>341</v>
       </c>
       <c r="B339" s="2">
-        <v>513.1</v>
+        <v>501.11</v>
       </c>
       <c r="C339" s="2">
-        <v>102326289578</v>
+        <v>100254905261</v>
       </c>
       <c r="D339" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6651,13 +6651,13 @@
         <v>342</v>
       </c>
       <c r="B340" s="2">
-        <v>38.73</v>
+        <v>38.23</v>
       </c>
       <c r="C340" s="2">
-        <v>9257167799</v>
+        <v>9000344992</v>
       </c>
       <c r="D340" s="3">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6665,13 +6665,13 @@
         <v>343</v>
       </c>
       <c r="B341" s="2">
-        <v>231.75</v>
+        <v>230.7</v>
       </c>
       <c r="C341" s="2">
-        <v>60694572634</v>
+        <v>57909805919</v>
       </c>
       <c r="D341" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6679,13 +6679,13 @@
         <v>344</v>
       </c>
       <c r="B342" s="2">
-        <v>70.45999999999999</v>
+        <v>66.09</v>
       </c>
       <c r="C342" s="2">
-        <v>15613494600</v>
+        <v>15065902000</v>
       </c>
       <c r="D342" s="3">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6693,13 +6693,13 @@
         <v>345</v>
       </c>
       <c r="B343" s="2">
-        <v>99.22</v>
+        <v>100.73</v>
       </c>
       <c r="C343" s="2">
-        <v>21115889434</v>
+        <v>20577899394</v>
       </c>
       <c r="D343" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6707,13 +6707,13 @@
         <v>346</v>
       </c>
       <c r="B344" s="2">
-        <v>110.6</v>
+        <v>108.11</v>
       </c>
       <c r="C344" s="2">
-        <v>30018252017</v>
+        <v>29008635882</v>
       </c>
       <c r="D344" s="3">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6721,13 +6721,13 @@
         <v>347</v>
       </c>
       <c r="B345" s="2">
-        <v>175.6</v>
+        <v>160.82</v>
       </c>
       <c r="C345" s="2">
-        <v>429655732155</v>
+        <v>401673792074</v>
       </c>
       <c r="D345" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6735,10 +6735,10 @@
         <v>348</v>
       </c>
       <c r="B346" s="2">
-        <v>4213.64</v>
+        <v>4000.47</v>
       </c>
       <c r="C346" s="2">
-        <v>13956207305</v>
+        <v>13311002651</v>
       </c>
       <c r="D346" s="3">
         <v>0</v>
@@ -6749,13 +6749,13 @@
         <v>349</v>
       </c>
       <c r="B347" s="2">
-        <v>19.87</v>
+        <v>19.75</v>
       </c>
       <c r="C347" s="2">
-        <v>8322921625</v>
+        <v>8201229877</v>
       </c>
       <c r="D347" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6763,13 +6763,13 @@
         <v>350</v>
       </c>
       <c r="B348" s="2">
-        <v>16.1</v>
+        <v>16.08</v>
       </c>
       <c r="C348" s="2">
-        <v>9362547737</v>
+        <v>9186232541</v>
       </c>
       <c r="D348" s="3">
-        <v>123</v>
+        <v>12</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6777,13 +6777,13 @@
         <v>351</v>
       </c>
       <c r="B349" s="2">
-        <v>16.06</v>
+        <v>15.74</v>
       </c>
       <c r="C349" s="2">
-        <v>9643676398</v>
+        <v>9458030738</v>
       </c>
       <c r="D349" s="3">
-        <v>124</v>
+        <v>12</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6791,13 +6791,13 @@
         <v>352</v>
       </c>
       <c r="B350" s="2">
-        <v>71.61</v>
+        <v>69.45999999999999</v>
       </c>
       <c r="C350" s="2">
-        <v>43179870661</v>
+        <v>42023363917</v>
       </c>
       <c r="D350" s="3">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6805,13 +6805,13 @@
         <v>353</v>
       </c>
       <c r="B351" s="2">
-        <v>271.63</v>
+        <v>265.05</v>
       </c>
       <c r="C351" s="2">
-        <v>30136296240</v>
+        <v>29656926904</v>
       </c>
       <c r="D351" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6819,13 +6819,13 @@
         <v>354</v>
       </c>
       <c r="B352" s="2">
-        <v>56.81</v>
+        <v>57.01</v>
       </c>
       <c r="C352" s="2">
-        <v>25883685243</v>
+        <v>25505623819</v>
       </c>
       <c r="D352" s="3">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6833,13 +6833,13 @@
         <v>355</v>
       </c>
       <c r="B353" s="2">
-        <v>67.8</v>
+        <v>64.12</v>
       </c>
       <c r="C353" s="2">
-        <v>13776305440</v>
+        <v>13386967866</v>
       </c>
       <c r="D353" s="3">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6847,13 +6847,13 @@
         <v>356</v>
       </c>
       <c r="B354" s="2">
-        <v>72.42</v>
+        <v>71.14</v>
       </c>
       <c r="C354" s="2">
-        <v>194891825663</v>
+        <v>185656966474</v>
       </c>
       <c r="D354" s="3">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6861,13 +6861,13 @@
         <v>357</v>
       </c>
       <c r="B355" s="2">
-        <v>669.4400000000001</v>
+        <v>658.03</v>
       </c>
       <c r="C355" s="2">
-        <v>43567466156</v>
+        <v>42196529444</v>
       </c>
       <c r="D355" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6875,13 +6875,13 @@
         <v>358</v>
       </c>
       <c r="B356" s="2">
-        <v>72.89</v>
+        <v>73.26000000000001</v>
       </c>
       <c r="C356" s="2">
-        <v>29658104524</v>
+        <v>30186148349</v>
       </c>
       <c r="D356" s="3">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6889,13 +6889,13 @@
         <v>359</v>
       </c>
       <c r="B357" s="2">
-        <v>60.3</v>
+        <v>60.1</v>
       </c>
       <c r="C357" s="2">
-        <v>57190997677</v>
+        <v>57050179890</v>
       </c>
       <c r="D357" s="3">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6903,13 +6903,13 @@
         <v>360</v>
       </c>
       <c r="B358" s="2">
-        <v>314.46</v>
+        <v>289.05</v>
       </c>
       <c r="C358" s="2">
-        <v>18101919675</v>
+        <v>17324236074</v>
       </c>
       <c r="D358" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6917,13 +6917,13 @@
         <v>361</v>
       </c>
       <c r="B359" s="2">
-        <v>124.59</v>
+        <v>117.53</v>
       </c>
       <c r="C359" s="2">
-        <v>46080986271</v>
+        <v>43373866316</v>
       </c>
       <c r="D359" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6931,13 +6931,13 @@
         <v>362</v>
       </c>
       <c r="B360" s="2">
-        <v>19.78</v>
+        <v>20.3</v>
       </c>
       <c r="C360" s="2">
-        <v>8382319420</v>
+        <v>8641787347</v>
       </c>
       <c r="D360" s="3">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6945,13 +6945,13 @@
         <v>363</v>
       </c>
       <c r="B361" s="2">
-        <v>86</v>
+        <v>84.3</v>
       </c>
       <c r="C361" s="2">
-        <v>30315022375</v>
+        <v>29423949648</v>
       </c>
       <c r="D361" s="3">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6959,13 +6959,13 @@
         <v>364</v>
       </c>
       <c r="B362" s="2">
-        <v>26.05</v>
+        <v>26.68</v>
       </c>
       <c r="C362" s="2">
-        <v>14446921188</v>
+        <v>14196365153</v>
       </c>
       <c r="D362" s="3">
-        <v>76</v>
+        <v>7</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6973,13 +6973,13 @@
         <v>365</v>
       </c>
       <c r="B363" s="2">
-        <v>65.12</v>
+        <v>65.56999999999999</v>
       </c>
       <c r="C363" s="2">
-        <v>31657008082</v>
+        <v>31883305031</v>
       </c>
       <c r="D363" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6987,13 +6987,13 @@
         <v>366</v>
       </c>
       <c r="B364" s="2">
-        <v>167.7</v>
+        <v>166.79</v>
       </c>
       <c r="C364" s="2">
-        <v>237161903178</v>
+        <v>231048298966</v>
       </c>
       <c r="D364" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -7001,13 +7001,13 @@
         <v>367</v>
       </c>
       <c r="B365" s="2">
-        <v>54.43</v>
+        <v>52.3</v>
       </c>
       <c r="C365" s="2">
-        <v>304444426912</v>
+        <v>293825298971</v>
       </c>
       <c r="D365" s="3">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -7015,13 +7015,13 @@
         <v>368</v>
       </c>
       <c r="B366" s="2">
-        <v>71.09999999999999</v>
+        <v>68.42</v>
       </c>
       <c r="C366" s="2">
-        <v>17604041206</v>
+        <v>17017510509</v>
       </c>
       <c r="D366" s="3">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7029,13 +7029,13 @@
         <v>369</v>
       </c>
       <c r="B367" s="2">
-        <v>144.32</v>
+        <v>149.2</v>
       </c>
       <c r="C367" s="2">
-        <v>352412406877</v>
+        <v>343654114424</v>
       </c>
       <c r="D367" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7043,13 +7043,13 @@
         <v>370</v>
       </c>
       <c r="B368" s="2">
-        <v>121.57</v>
+        <v>118.39</v>
       </c>
       <c r="C368" s="2">
-        <v>68725620808</v>
+        <v>66731642357</v>
       </c>
       <c r="D368" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7057,13 +7057,13 @@
         <v>371</v>
       </c>
       <c r="B369" s="2">
-        <v>255.23</v>
+        <v>248.62</v>
       </c>
       <c r="C369" s="2">
-        <v>33023792506</v>
+        <v>32966028715</v>
       </c>
       <c r="D369" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7071,13 +7071,13 @@
         <v>372</v>
       </c>
       <c r="B370" s="2">
-        <v>41.52</v>
+        <v>40.43</v>
       </c>
       <c r="C370" s="2">
-        <v>10026516315</v>
+        <v>9606693854</v>
       </c>
       <c r="D370" s="3">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7085,13 +7085,13 @@
         <v>373</v>
       </c>
       <c r="B371" s="2">
-        <v>146.57</v>
+        <v>139.06</v>
       </c>
       <c r="C371" s="2">
-        <v>13630893173</v>
+        <v>13549214348</v>
       </c>
       <c r="D371" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7099,13 +7099,13 @@
         <v>374</v>
       </c>
       <c r="B372" s="2">
-        <v>149.2</v>
+        <v>146.83</v>
       </c>
       <c r="C372" s="2">
-        <v>18996456958</v>
+        <v>18258091101</v>
       </c>
       <c r="D372" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7113,13 +7113,13 @@
         <v>375</v>
       </c>
       <c r="B373" s="2">
-        <v>122.26</v>
+        <v>118.92</v>
       </c>
       <c r="C373" s="2">
-        <v>89325665568</v>
+        <v>91092589275</v>
       </c>
       <c r="D373" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7127,13 +7127,13 @@
         <v>376</v>
       </c>
       <c r="B374" s="2">
-        <v>106.58</v>
+        <v>103.31</v>
       </c>
       <c r="C374" s="2">
-        <v>159703937688</v>
+        <v>162985739393</v>
       </c>
       <c r="D374" s="3">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7141,13 +7141,13 @@
         <v>377</v>
       </c>
       <c r="B375" s="2">
-        <v>163.02</v>
+        <v>162.96</v>
       </c>
       <c r="C375" s="2">
-        <v>69425318488</v>
+        <v>66102599917</v>
       </c>
       <c r="D375" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7155,13 +7155,13 @@
         <v>378</v>
       </c>
       <c r="B376" s="2">
-        <v>48.59</v>
+        <v>46.11</v>
       </c>
       <c r="C376" s="2">
-        <v>7962693231</v>
+        <v>7575294463</v>
       </c>
       <c r="D376" s="3">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7169,13 +7169,13 @@
         <v>379</v>
       </c>
       <c r="B377" s="2">
-        <v>76.23999999999999</v>
+        <v>72.7</v>
       </c>
       <c r="C377" s="2">
-        <v>8634799619</v>
+        <v>8255031849</v>
       </c>
       <c r="D377" s="3">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7183,13 +7183,13 @@
         <v>380</v>
       </c>
       <c r="B378" s="2">
-        <v>124.7</v>
+        <v>121.96</v>
       </c>
       <c r="C378" s="2">
-        <v>29836956666</v>
+        <v>27849090562</v>
       </c>
       <c r="D378" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7197,13 +7197,13 @@
         <v>381</v>
       </c>
       <c r="B379" s="2">
-        <v>27.57</v>
+        <v>28.26</v>
       </c>
       <c r="C379" s="2">
-        <v>20467464224</v>
+        <v>19948334801</v>
       </c>
       <c r="D379" s="3">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7211,13 +7211,13 @@
         <v>382</v>
       </c>
       <c r="B380" s="2">
-        <v>41.59</v>
+        <v>42.17</v>
       </c>
       <c r="C380" s="2">
-        <v>5837567544</v>
+        <v>5706782577</v>
       </c>
       <c r="D380" s="3">
-        <v>47</v>
+        <v>4</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7225,13 +7225,13 @@
         <v>383</v>
       </c>
       <c r="B381" s="2">
-        <v>99.45</v>
+        <v>97.27</v>
       </c>
       <c r="C381" s="2">
-        <v>37814621660</v>
+        <v>37481572016</v>
       </c>
       <c r="D381" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7239,13 +7239,13 @@
         <v>384</v>
       </c>
       <c r="B382" s="2">
-        <v>324.84</v>
+        <v>323.33</v>
       </c>
       <c r="C382" s="2">
-        <v>55600428132</v>
+        <v>56491525942</v>
       </c>
       <c r="D382" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7253,13 +7253,13 @@
         <v>385</v>
       </c>
       <c r="B383" s="2">
-        <v>91.40000000000001</v>
+        <v>85.66</v>
       </c>
       <c r="C383" s="2">
-        <v>43095831361</v>
+        <v>42711759870</v>
       </c>
       <c r="D383" s="3">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7267,13 +7267,13 @@
         <v>386</v>
       </c>
       <c r="B384" s="2">
-        <v>65</v>
+        <v>59.15</v>
       </c>
       <c r="C384" s="2">
-        <v>4250419468</v>
+        <v>3961358830</v>
       </c>
       <c r="D384" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7281,13 +7281,13 @@
         <v>387</v>
       </c>
       <c r="B385" s="2">
-        <v>132.75</v>
+        <v>124.98</v>
       </c>
       <c r="C385" s="2">
-        <v>18417055967</v>
+        <v>17304162622</v>
       </c>
       <c r="D385" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7295,13 +7295,13 @@
         <v>388</v>
       </c>
       <c r="B386" s="2">
-        <v>236.13</v>
+        <v>234.65</v>
       </c>
       <c r="C386" s="2">
-        <v>55886194779</v>
+        <v>57218430426</v>
       </c>
       <c r="D386" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7309,13 +7309,13 @@
         <v>389</v>
       </c>
       <c r="B387" s="2">
-        <v>77.11</v>
+        <v>72.73</v>
       </c>
       <c r="C387" s="2">
-        <v>91084259625</v>
+        <v>84771933795</v>
       </c>
       <c r="D387" s="3">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7323,13 +7323,13 @@
         <v>390</v>
       </c>
       <c r="B388" s="2">
-        <v>131.09</v>
+        <v>134.44</v>
       </c>
       <c r="C388" s="2">
-        <v>145988804798</v>
+        <v>149711555784</v>
       </c>
       <c r="D388" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7337,13 +7337,13 @@
         <v>391</v>
       </c>
       <c r="B389" s="2">
-        <v>102.3</v>
+        <v>96.31999999999999</v>
       </c>
       <c r="C389" s="2">
-        <v>10641098783</v>
+        <v>10418435073</v>
       </c>
       <c r="D389" s="3">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7351,13 +7351,13 @@
         <v>392</v>
       </c>
       <c r="B390" s="2">
-        <v>40.71</v>
+        <v>36.65</v>
       </c>
       <c r="C390" s="2">
-        <v>10326464357</v>
+        <v>9341319080</v>
       </c>
       <c r="D390" s="3">
-        <v>49</v>
+        <v>5</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7365,13 +7365,13 @@
         <v>393</v>
       </c>
       <c r="B391" s="2">
-        <v>287.83</v>
+        <v>287.98</v>
       </c>
       <c r="C391" s="2">
-        <v>11364492605</v>
+        <v>11235021502</v>
       </c>
       <c r="D391" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7379,13 +7379,13 @@
         <v>394</v>
       </c>
       <c r="B392" s="2">
-        <v>63.23</v>
+        <v>62.26</v>
       </c>
       <c r="C392" s="2">
-        <v>10804085571</v>
+        <v>10581892345</v>
       </c>
       <c r="D392" s="3">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7393,13 +7393,13 @@
         <v>395</v>
       </c>
       <c r="B393" s="2">
-        <v>606.6799999999999</v>
+        <v>611.3099999999999</v>
       </c>
       <c r="C393" s="2">
-        <v>65223234939</v>
+        <v>65276197650</v>
       </c>
       <c r="D393" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7407,13 +7407,13 @@
         <v>396</v>
       </c>
       <c r="B394" s="2">
-        <v>19.6</v>
+        <v>19.99</v>
       </c>
       <c r="C394" s="2">
-        <v>18103599274</v>
+        <v>18171259404</v>
       </c>
       <c r="D394" s="3">
-        <v>101</v>
+        <v>9</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7421,13 +7421,13 @@
         <v>397</v>
       </c>
       <c r="B395" s="2">
-        <v>79.06999999999999</v>
+        <v>76.37</v>
       </c>
       <c r="C395" s="2">
-        <v>8773889047</v>
+        <v>8521421418</v>
       </c>
       <c r="D395" s="3">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7435,13 +7435,13 @@
         <v>398</v>
       </c>
       <c r="B396" s="2">
-        <v>94.67</v>
+        <v>91.81</v>
       </c>
       <c r="C396" s="2">
-        <v>19571356528</v>
+        <v>19554923340</v>
       </c>
       <c r="D396" s="3">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7449,13 +7449,13 @@
         <v>399</v>
       </c>
       <c r="B397" s="2">
-        <v>96.34</v>
+        <v>94.22</v>
       </c>
       <c r="C397" s="2">
-        <v>6891206473</v>
+        <v>6824016058</v>
       </c>
       <c r="D397" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7463,13 +7463,13 @@
         <v>400</v>
       </c>
       <c r="B398" s="2">
-        <v>212.69</v>
+        <v>220.49</v>
       </c>
       <c r="C398" s="2">
-        <v>32487752654</v>
+        <v>32262751028</v>
       </c>
       <c r="D398" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7477,13 +7477,13 @@
         <v>401</v>
       </c>
       <c r="B399" s="2">
-        <v>210.4</v>
+        <v>198.63</v>
       </c>
       <c r="C399" s="2">
-        <v>24440385872</v>
+        <v>23343718750</v>
       </c>
       <c r="D399" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7491,13 +7491,13 @@
         <v>402</v>
       </c>
       <c r="B400" s="2">
-        <v>35.39</v>
+        <v>35.77</v>
       </c>
       <c r="C400" s="2">
-        <v>17702414597</v>
+        <v>17318272661</v>
       </c>
       <c r="D400" s="3">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7505,13 +7505,13 @@
         <v>403</v>
       </c>
       <c r="B401" s="2">
-        <v>407.2</v>
+        <v>408.91</v>
       </c>
       <c r="C401" s="2">
-        <v>44330099468</v>
+        <v>41690622881</v>
       </c>
       <c r="D401" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7519,13 +7519,13 @@
         <v>404</v>
       </c>
       <c r="B402" s="2">
-        <v>79.48</v>
+        <v>73.06999999999999</v>
       </c>
       <c r="C402" s="2">
-        <v>26730936019</v>
+        <v>25871566538</v>
       </c>
       <c r="D402" s="3">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7533,13 +7533,13 @@
         <v>405</v>
       </c>
       <c r="B403" s="2">
-        <v>133</v>
+        <v>132.1</v>
       </c>
       <c r="C403" s="2">
-        <v>41770407239</v>
+        <v>42349702926</v>
       </c>
       <c r="D403" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7547,13 +7547,13 @@
         <v>406</v>
       </c>
       <c r="B404" s="2">
-        <v>97.79000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="C404" s="2">
-        <v>146876824170</v>
+        <v>145357394233</v>
       </c>
       <c r="D404" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7561,13 +7561,13 @@
         <v>407</v>
       </c>
       <c r="B405" s="2">
-        <v>336.1</v>
+        <v>330.72</v>
       </c>
       <c r="C405" s="2">
-        <v>36412185243</v>
+        <v>35891140282</v>
       </c>
       <c r="D405" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7575,13 +7575,13 @@
         <v>408</v>
       </c>
       <c r="B406" s="2">
-        <v>78.05</v>
+        <v>78.48</v>
       </c>
       <c r="C406" s="2">
-        <v>90231528429</v>
+        <v>90079752339</v>
       </c>
       <c r="D406" s="3">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7589,13 +7589,13 @@
         <v>409</v>
       </c>
       <c r="B407" s="2">
-        <v>64.45</v>
+        <v>66.09</v>
       </c>
       <c r="C407" s="2">
-        <v>123399399942</v>
+        <v>124549327273</v>
       </c>
       <c r="D407" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7603,13 +7603,13 @@
         <v>410</v>
       </c>
       <c r="B408" s="2">
-        <v>61.22</v>
+        <v>59.67</v>
       </c>
       <c r="C408" s="2">
-        <v>8973723342</v>
+        <v>8536274594</v>
       </c>
       <c r="D408" s="3">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7617,13 +7617,13 @@
         <v>411</v>
       </c>
       <c r="B409" s="2">
-        <v>233.61</v>
+        <v>235.48</v>
       </c>
       <c r="C409" s="2">
-        <v>59952335041</v>
+        <v>60356537541</v>
       </c>
       <c r="D409" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7631,13 +7631,13 @@
         <v>412</v>
       </c>
       <c r="B410" s="2">
-        <v>424.69</v>
+        <v>422.36</v>
       </c>
       <c r="C410" s="2">
-        <v>25465318298</v>
+        <v>24695571926</v>
       </c>
       <c r="D410" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7645,13 +7645,13 @@
         <v>413</v>
       </c>
       <c r="B411" s="2">
-        <v>134.41</v>
+        <v>137.2</v>
       </c>
       <c r="C411" s="2">
-        <v>14550267907</v>
+        <v>14761934839</v>
       </c>
       <c r="D411" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7659,13 +7659,13 @@
         <v>414</v>
       </c>
       <c r="B412" s="2">
-        <v>36.39</v>
+        <v>36.75</v>
       </c>
       <c r="C412" s="2">
-        <v>52812925501</v>
+        <v>51302445829</v>
       </c>
       <c r="D412" s="3">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7673,13 +7673,13 @@
         <v>415</v>
       </c>
       <c r="B413" s="2">
-        <v>50.02</v>
+        <v>48.18</v>
       </c>
       <c r="C413" s="2">
-        <v>3264622561</v>
+        <v>3090732312</v>
       </c>
       <c r="D413" s="3">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7687,13 +7687,13 @@
         <v>416</v>
       </c>
       <c r="B414" s="2">
-        <v>206.48</v>
+        <v>200.73</v>
       </c>
       <c r="C414" s="2">
-        <v>11148165595</v>
+        <v>10672791068</v>
       </c>
       <c r="D414" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7701,13 +7701,13 @@
         <v>417</v>
       </c>
       <c r="B415" s="2">
-        <v>321.64</v>
+        <v>320.82</v>
       </c>
       <c r="C415" s="2">
-        <v>47965241678</v>
+        <v>47133439473</v>
       </c>
       <c r="D415" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7715,13 +7715,13 @@
         <v>418</v>
       </c>
       <c r="B416" s="2">
-        <v>71.84</v>
+        <v>72.2</v>
       </c>
       <c r="C416" s="2">
-        <v>76251349023</v>
+        <v>75326897188</v>
       </c>
       <c r="D416" s="3">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7729,13 +7729,13 @@
         <v>419</v>
       </c>
       <c r="B417" s="2">
-        <v>103.29</v>
+        <v>98.43000000000001</v>
       </c>
       <c r="C417" s="2">
-        <v>33688539405</v>
+        <v>33110752165</v>
       </c>
       <c r="D417" s="3">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7743,13 +7743,13 @@
         <v>420</v>
       </c>
       <c r="B418" s="2">
-        <v>344.68</v>
+        <v>334.85</v>
       </c>
       <c r="C418" s="2">
-        <v>121118778852</v>
+        <v>118884238280</v>
       </c>
       <c r="D418" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7757,13 +7757,13 @@
         <v>421</v>
       </c>
       <c r="B419" s="2">
-        <v>157.47</v>
+        <v>157.36</v>
       </c>
       <c r="C419" s="2">
-        <v>49033568928</v>
+        <v>48417979914</v>
       </c>
       <c r="D419" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7771,13 +7771,13 @@
         <v>422</v>
       </c>
       <c r="B420" s="2">
-        <v>216.7</v>
+        <v>208.97</v>
       </c>
       <c r="C420" s="2">
-        <v>21584623025</v>
+        <v>21021304041</v>
       </c>
       <c r="D420" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7785,13 +7785,13 @@
         <v>423</v>
       </c>
       <c r="B421" s="2">
-        <v>68.33</v>
+        <v>65.45</v>
       </c>
       <c r="C421" s="2">
-        <v>25020093469</v>
+        <v>24225022581</v>
       </c>
       <c r="D421" s="3">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7799,13 +7799,13 @@
         <v>424</v>
       </c>
       <c r="B422" s="2">
-        <v>75.581</v>
+        <v>74.55</v>
       </c>
       <c r="C422" s="2">
-        <v>16045612448</v>
+        <v>16059135975</v>
       </c>
       <c r="D422" s="3">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7813,13 +7813,13 @@
         <v>425</v>
       </c>
       <c r="B423" s="2">
-        <v>252.79</v>
+        <v>250.72</v>
       </c>
       <c r="C423" s="2">
-        <v>46785534119</v>
+        <v>47389438645</v>
       </c>
       <c r="D423" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7827,13 +7827,13 @@
         <v>426</v>
       </c>
       <c r="B424" s="2">
-        <v>113.62</v>
+        <v>108.96</v>
       </c>
       <c r="C424" s="2">
-        <v>16521830335</v>
+        <v>16615815552</v>
       </c>
       <c r="D424" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7841,13 +7841,13 @@
         <v>427</v>
       </c>
       <c r="B425" s="2">
-        <v>99.28</v>
+        <v>98.01000000000001</v>
       </c>
       <c r="C425" s="2">
-        <v>16365931474</v>
+        <v>15129271081</v>
       </c>
       <c r="D425" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7855,13 +7855,13 @@
         <v>428</v>
       </c>
       <c r="B426" s="2">
-        <v>30.66</v>
+        <v>29.46</v>
       </c>
       <c r="C426" s="2">
-        <v>14957208784</v>
+        <v>14878946667</v>
       </c>
       <c r="D426" s="3">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7869,13 +7869,13 @@
         <v>429</v>
       </c>
       <c r="B427" s="2">
-        <v>206.41</v>
+        <v>200.7</v>
       </c>
       <c r="C427" s="2">
-        <v>79385182781</v>
+        <v>76075660106</v>
       </c>
       <c r="D427" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7883,13 +7883,13 @@
         <v>430</v>
       </c>
       <c r="B428" s="2">
-        <v>89.3</v>
+        <v>86.5</v>
       </c>
       <c r="C428" s="2">
-        <v>46039747967</v>
+        <v>43772537263</v>
       </c>
       <c r="D428" s="3">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7897,13 +7897,13 @@
         <v>431</v>
       </c>
       <c r="B429" s="2">
-        <v>21.28</v>
+        <v>21.42</v>
       </c>
       <c r="C429" s="2">
-        <v>152506394847</v>
+        <v>150624686609</v>
       </c>
       <c r="D429" s="3">
-        <v>93</v>
+        <v>9</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7911,13 +7911,13 @@
         <v>432</v>
       </c>
       <c r="B430" s="2">
-        <v>57.06</v>
+        <v>56.57</v>
       </c>
       <c r="C430" s="2">
-        <v>11559599766</v>
+        <v>12348101792</v>
       </c>
       <c r="D430" s="3">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7925,13 +7925,13 @@
         <v>433</v>
       </c>
       <c r="B431" s="2">
-        <v>544.5</v>
+        <v>526.84</v>
       </c>
       <c r="C431" s="2">
-        <v>29732147189</v>
+        <v>29295168691</v>
       </c>
       <c r="D431" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7939,13 +7939,13 @@
         <v>434</v>
       </c>
       <c r="B432" s="2">
-        <v>386.43</v>
+        <v>371.84</v>
       </c>
       <c r="C432" s="2">
-        <v>17957697983</v>
+        <v>17628851322</v>
       </c>
       <c r="D432" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7953,13 +7953,13 @@
         <v>435</v>
       </c>
       <c r="B433" s="2">
-        <v>120.39</v>
+        <v>116.21</v>
       </c>
       <c r="C433" s="2">
-        <v>39304043264</v>
+        <v>37851835885</v>
       </c>
       <c r="D433" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7967,13 +7967,13 @@
         <v>436</v>
       </c>
       <c r="B434" s="2">
-        <v>48.78</v>
+        <v>49</v>
       </c>
       <c r="C434" s="2">
-        <v>65696683713</v>
+        <v>64843560050</v>
       </c>
       <c r="D434" s="3">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7981,13 +7981,13 @@
         <v>437</v>
       </c>
       <c r="B435" s="2">
-        <v>262.45</v>
+        <v>266.88</v>
       </c>
       <c r="C435" s="2">
-        <v>12717318521</v>
+        <v>12290616685</v>
       </c>
       <c r="D435" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7995,13 +7995,13 @@
         <v>438</v>
       </c>
       <c r="B436" s="2">
-        <v>150.96</v>
+        <v>148.4</v>
       </c>
       <c r="C436" s="2">
-        <v>70191299215</v>
+        <v>68912332648</v>
       </c>
       <c r="D436" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -8009,13 +8009,13 @@
         <v>439</v>
       </c>
       <c r="B437" s="2">
-        <v>137.06</v>
+        <v>132.27</v>
       </c>
       <c r="C437" s="2">
-        <v>16341254604</v>
+        <v>16094393373</v>
       </c>
       <c r="D437" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -8023,13 +8023,13 @@
         <v>440</v>
       </c>
       <c r="B438" s="2">
-        <v>60.91</v>
+        <v>57.68</v>
       </c>
       <c r="C438" s="2">
-        <v>72823036427</v>
+        <v>68885173978</v>
       </c>
       <c r="D438" s="3">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -8037,13 +8037,13 @@
         <v>441</v>
       </c>
       <c r="B439" s="2">
-        <v>558.11</v>
+        <v>544.0700000000001</v>
       </c>
       <c r="C439" s="2">
-        <v>213975620921</v>
+        <v>216675472033</v>
       </c>
       <c r="D439" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8051,13 +8051,13 @@
         <v>442</v>
       </c>
       <c r="B440" s="2">
-        <v>137.02</v>
+        <v>139.72</v>
       </c>
       <c r="C440" s="2">
-        <v>175963155333</v>
+        <v>168827787952</v>
       </c>
       <c r="D440" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8065,13 +8065,13 @@
         <v>443</v>
       </c>
       <c r="B441" s="2">
-        <v>32.62</v>
+        <v>32.46</v>
       </c>
       <c r="C441" s="2">
-        <v>8406807879</v>
+        <v>7999445232</v>
       </c>
       <c r="D441" s="3">
-        <v>61</v>
+        <v>6</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8079,13 +8079,13 @@
         <v>444</v>
       </c>
       <c r="B442" s="2">
-        <v>124.4</v>
+        <v>116.4</v>
       </c>
       <c r="C442" s="2">
-        <v>27903648613</v>
+        <v>27144610583</v>
       </c>
       <c r="D442" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8093,13 +8093,13 @@
         <v>445</v>
       </c>
       <c r="B443" s="2">
-        <v>170.83</v>
+        <v>173.1</v>
       </c>
       <c r="C443" s="2">
-        <v>41794721346</v>
+        <v>40958845762</v>
       </c>
       <c r="D443" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8107,13 +8107,13 @@
         <v>446</v>
       </c>
       <c r="B444" s="2">
-        <v>203.5</v>
+        <v>201.63</v>
       </c>
       <c r="C444" s="2">
-        <v>23735880203</v>
+        <v>22038378218</v>
       </c>
       <c r="D444" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8121,13 +8121,13 @@
         <v>447</v>
       </c>
       <c r="B445" s="2">
-        <v>87.37</v>
+        <v>90.3</v>
       </c>
       <c r="C445" s="2">
-        <v>31343126017</v>
+        <v>32646202141</v>
       </c>
       <c r="D445" s="3">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8135,13 +8135,13 @@
         <v>448</v>
       </c>
       <c r="B446" s="2">
-        <v>136.31</v>
+        <v>134.98</v>
       </c>
       <c r="C446" s="2">
-        <v>31034614308</v>
+        <v>31364182200</v>
       </c>
       <c r="D446" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8149,13 +8149,13 @@
         <v>449</v>
       </c>
       <c r="B447" s="2">
-        <v>131.03</v>
+        <v>130.22</v>
       </c>
       <c r="C447" s="2">
-        <v>15163750149</v>
+        <v>14799408579</v>
       </c>
       <c r="D447" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8163,13 +8163,13 @@
         <v>450</v>
       </c>
       <c r="B448" s="2">
-        <v>39.91</v>
+        <v>38.5</v>
       </c>
       <c r="C448" s="2">
-        <v>30852697104</v>
+        <v>29646988419</v>
       </c>
       <c r="D448" s="3">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8177,13 +8177,13 @@
         <v>451</v>
       </c>
       <c r="B449" s="2">
-        <v>162.24</v>
+        <v>159.44</v>
       </c>
       <c r="C449" s="2">
-        <v>144492908179</v>
+        <v>147194476318</v>
       </c>
       <c r="D449" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8191,13 +8191,13 @@
         <v>452</v>
       </c>
       <c r="B450" s="2">
-        <v>61.78</v>
+        <v>60.28</v>
       </c>
       <c r="C450" s="2">
-        <v>13264603454</v>
+        <v>12945750091</v>
       </c>
       <c r="D450" s="3">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8205,13 +8205,13 @@
         <v>453</v>
       </c>
       <c r="B451" s="2">
-        <v>351</v>
+        <v>335.62</v>
       </c>
       <c r="C451" s="2">
-        <v>14804180699</v>
+        <v>14139482787</v>
       </c>
       <c r="D451" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8219,13 +8219,13 @@
         <v>454</v>
       </c>
       <c r="B452" s="2">
-        <v>8.73</v>
+        <v>7.85</v>
       </c>
       <c r="C452" s="2">
-        <v>4101919688</v>
+        <v>3842488174</v>
       </c>
       <c r="D452" s="3">
-        <v>228</v>
+        <v>25</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8233,13 +8233,13 @@
         <v>455</v>
       </c>
       <c r="B453" s="2">
-        <v>9.789999999999999</v>
+        <v>9.02</v>
       </c>
       <c r="C453" s="2">
-        <v>4069210319</v>
+        <v>3939092357</v>
       </c>
       <c r="D453" s="3">
-        <v>203</v>
+        <v>22</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8247,13 +8247,13 @@
         <v>456</v>
       </c>
       <c r="B454" s="2">
-        <v>38.72</v>
+        <v>36.03</v>
       </c>
       <c r="C454" s="2">
-        <v>12670122218</v>
+        <v>12012881643</v>
       </c>
       <c r="D454" s="3">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8261,13 +8261,13 @@
         <v>457</v>
       </c>
       <c r="B455" s="2">
-        <v>47.31</v>
+        <v>47.32</v>
       </c>
       <c r="C455" s="2">
-        <v>15596446930</v>
+        <v>15197884821</v>
       </c>
       <c r="D455" s="3">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8275,13 +8275,13 @@
         <v>458</v>
       </c>
       <c r="B456" s="2">
-        <v>110.48</v>
+        <v>111.48</v>
       </c>
       <c r="C456" s="2">
-        <v>9397910640</v>
+        <v>9521213830</v>
       </c>
       <c r="D456" s="3">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8289,13 +8289,13 @@
         <v>459</v>
       </c>
       <c r="B457" s="2">
-        <v>404.51</v>
+        <v>408.77</v>
       </c>
       <c r="C457" s="2">
-        <v>21019001458</v>
+        <v>21187943299</v>
       </c>
       <c r="D457" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8303,13 +8303,13 @@
         <v>460</v>
       </c>
       <c r="B458" s="2">
-        <v>511.42</v>
+        <v>539.63</v>
       </c>
       <c r="C458" s="2">
-        <v>495560394279</v>
+        <v>485076533949</v>
       </c>
       <c r="D458" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8317,13 +8317,13 @@
         <v>461</v>
       </c>
       <c r="B459" s="2">
-        <v>35.62</v>
+        <v>35.28</v>
       </c>
       <c r="C459" s="2">
-        <v>6940305309</v>
+        <v>7138765332</v>
       </c>
       <c r="D459" s="3">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8331,13 +8331,13 @@
         <v>462</v>
       </c>
       <c r="B460" s="2">
-        <v>215.53</v>
+        <v>214.32</v>
       </c>
       <c r="C460" s="2">
-        <v>139659693188</v>
+        <v>139032362136</v>
       </c>
       <c r="D460" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8345,13 +8345,13 @@
         <v>463</v>
       </c>
       <c r="B461" s="2">
-        <v>182.21</v>
+        <v>184.86</v>
       </c>
       <c r="C461" s="2">
-        <v>161664364653</v>
+        <v>160229899418</v>
       </c>
       <c r="D461" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8359,13 +8359,13 @@
         <v>464</v>
       </c>
       <c r="B462" s="2">
-        <v>256.58</v>
+        <v>245.52</v>
       </c>
       <c r="C462" s="2">
-        <v>18647023695</v>
+        <v>17573553171</v>
       </c>
       <c r="D462" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8373,13 +8373,13 @@
         <v>465</v>
       </c>
       <c r="B463" s="2">
-        <v>49.09</v>
+        <v>47.76</v>
       </c>
       <c r="C463" s="2">
-        <v>70995685318</v>
+        <v>69624097662</v>
       </c>
       <c r="D463" s="3">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8387,13 +8387,13 @@
         <v>466</v>
       </c>
       <c r="B464" s="2">
-        <v>208.91</v>
+        <v>201.7</v>
       </c>
       <c r="C464" s="2">
-        <v>455613370306</v>
+        <v>451318899172</v>
       </c>
       <c r="D464" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8401,13 +8401,13 @@
         <v>467</v>
       </c>
       <c r="B465" s="2">
-        <v>182.95</v>
+        <v>184.41</v>
       </c>
       <c r="C465" s="2">
-        <v>16394507731</v>
+        <v>16702403328</v>
       </c>
       <c r="D465" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8415,13 +8415,13 @@
         <v>468</v>
       </c>
       <c r="B466" s="2">
-        <v>49.03</v>
+        <v>45.81</v>
       </c>
       <c r="C466" s="2">
-        <v>19016733039</v>
+        <v>17803681214</v>
       </c>
       <c r="D466" s="3">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8429,13 +8429,13 @@
         <v>469</v>
       </c>
       <c r="B467" s="2">
-        <v>114.81</v>
+        <v>110.71</v>
       </c>
       <c r="C467" s="2">
-        <v>46658291127</v>
+        <v>45472282291</v>
       </c>
       <c r="D467" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8443,13 +8443,13 @@
         <v>470</v>
       </c>
       <c r="B468" s="2">
-        <v>149.17</v>
+        <v>144.97</v>
       </c>
       <c r="C468" s="2">
-        <v>19943410594</v>
+        <v>19630565784</v>
       </c>
       <c r="D468" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8457,13 +8457,13 @@
         <v>471</v>
       </c>
       <c r="B469" s="2">
-        <v>30.64</v>
+        <v>29.72</v>
       </c>
       <c r="C469" s="2">
-        <v>5656325499</v>
+        <v>5776112851</v>
       </c>
       <c r="D469" s="3">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8471,13 +8471,13 @@
         <v>472</v>
       </c>
       <c r="B470" s="2">
-        <v>174.36</v>
+        <v>174.22</v>
       </c>
       <c r="C470" s="2">
-        <v>28783194175</v>
+        <v>27792216390</v>
       </c>
       <c r="D470" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8485,13 +8485,13 @@
         <v>473</v>
       </c>
       <c r="B471" s="2">
-        <v>175.61</v>
+        <v>171.71</v>
       </c>
       <c r="C471" s="2">
-        <v>19242910904</v>
+        <v>18774324671</v>
       </c>
       <c r="D471" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8499,13 +8499,13 @@
         <v>474</v>
       </c>
       <c r="B472" s="2">
-        <v>292.45</v>
+        <v>281.31</v>
       </c>
       <c r="C472" s="2">
-        <v>76413655379</v>
+        <v>75031842207</v>
       </c>
       <c r="D472" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8513,13 +8513,13 @@
         <v>475</v>
       </c>
       <c r="B473" s="2">
-        <v>52.82</v>
+        <v>53.49</v>
       </c>
       <c r="C473" s="2">
-        <v>20737104485</v>
+        <v>21575840358</v>
       </c>
       <c r="D473" s="3">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8527,13 +8527,13 @@
         <v>476</v>
       </c>
       <c r="B474" s="2">
-        <v>52.87</v>
+        <v>53.46</v>
       </c>
       <c r="C474" s="2">
-        <v>220893044731</v>
+        <v>219733006905</v>
       </c>
       <c r="D474" s="3">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8541,13 +8541,13 @@
         <v>477</v>
       </c>
       <c r="B475" s="2">
-        <v>87.72</v>
+        <v>82.92</v>
       </c>
       <c r="C475" s="2">
-        <v>16023549598</v>
+        <v>15131675377</v>
       </c>
       <c r="D475" s="3">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8555,13 +8555,13 @@
         <v>478</v>
       </c>
       <c r="B476" s="2">
-        <v>344.66</v>
+        <v>333.3</v>
       </c>
       <c r="C476" s="2">
-        <v>19972792656</v>
+        <v>20064891667</v>
       </c>
       <c r="D476" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8569,13 +8569,13 @@
         <v>479</v>
       </c>
       <c r="B477" s="2">
-        <v>43.86</v>
+        <v>42.66</v>
       </c>
       <c r="C477" s="2">
-        <v>37145944125</v>
+        <v>36154466257</v>
       </c>
       <c r="D477" s="3">
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8583,13 +8583,13 @@
         <v>480</v>
       </c>
       <c r="B478" s="2">
-        <v>49.2</v>
+        <v>47.3</v>
       </c>
       <c r="C478" s="2">
-        <v>15127658112</v>
+        <v>14514877295</v>
       </c>
       <c r="D478" s="3">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8597,13 +8597,13 @@
         <v>481</v>
       </c>
       <c r="B479" s="2">
-        <v>100.61</v>
+        <v>100.35</v>
       </c>
       <c r="C479" s="2">
-        <v>32711898419</v>
+        <v>32735187998</v>
       </c>
       <c r="D479" s="3">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8611,13 +8611,13 @@
         <v>482</v>
       </c>
       <c r="B480" s="2">
-        <v>85.59</v>
+        <v>83.47</v>
       </c>
       <c r="C480" s="2">
-        <v>39103329362</v>
+        <v>37949190770</v>
       </c>
       <c r="D480" s="3">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8625,13 +8625,13 @@
         <v>483</v>
       </c>
       <c r="B481" s="2">
-        <v>41.22</v>
+        <v>39.79</v>
       </c>
       <c r="C481" s="2">
-        <v>153842246453</v>
+        <v>151096613711</v>
       </c>
       <c r="D481" s="3">
-        <v>48</v>
+        <v>5</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8639,13 +8639,13 @@
         <v>484</v>
       </c>
       <c r="B482" s="2">
-        <v>171.61</v>
+        <v>159.49</v>
       </c>
       <c r="C482" s="2">
-        <v>9455081666</v>
+        <v>9129446498</v>
       </c>
       <c r="D482" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8653,13 +8653,13 @@
         <v>485</v>
       </c>
       <c r="B483" s="2">
-        <v>151.27</v>
+        <v>153.99</v>
       </c>
       <c r="C483" s="2">
-        <v>63394772249</v>
+        <v>63150028742</v>
       </c>
       <c r="D483" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8667,13 +8667,13 @@
         <v>486</v>
       </c>
       <c r="B484" s="2">
-        <v>31.67</v>
+        <v>31.75</v>
       </c>
       <c r="C484" s="2">
-        <v>38332222434</v>
+        <v>39610635622</v>
       </c>
       <c r="D484" s="3">
-        <v>63</v>
+        <v>6</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -8681,13 +8681,13 @@
         <v>487</v>
       </c>
       <c r="B485" s="2">
-        <v>130.04</v>
+        <v>123.04</v>
       </c>
       <c r="C485" s="2">
-        <v>342593904068</v>
+        <v>335723888453</v>
       </c>
       <c r="D485" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8695,13 +8695,13 @@
         <v>488</v>
       </c>
       <c r="B486" s="2">
-        <v>71.79000000000001</v>
+        <v>69.16</v>
       </c>
       <c r="C486" s="2">
-        <v>18963810493</v>
+        <v>17905843046</v>
       </c>
       <c r="D486" s="3">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -8709,13 +8709,13 @@
         <v>489</v>
       </c>
       <c r="B487" s="2">
-        <v>42.73</v>
+        <v>41.99</v>
       </c>
       <c r="C487" s="2">
-        <v>10866002764</v>
+        <v>10704533703</v>
       </c>
       <c r="D487" s="3">
-        <v>46</v>
+        <v>4</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8723,13 +8723,13 @@
         <v>490</v>
       </c>
       <c r="B488" s="2">
-        <v>307.61</v>
+        <v>307.84</v>
       </c>
       <c r="C488" s="2">
-        <v>23619493330</v>
+        <v>22753307871</v>
       </c>
       <c r="D488" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8737,13 +8737,13 @@
         <v>491</v>
       </c>
       <c r="B489" s="2">
-        <v>17.21</v>
+        <v>17.09</v>
       </c>
       <c r="C489" s="2">
-        <v>6532500392</v>
+        <v>6646174011</v>
       </c>
       <c r="D489" s="3">
-        <v>115</v>
+        <v>11</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8751,13 +8751,13 @@
         <v>492</v>
       </c>
       <c r="B490" s="2">
-        <v>35.15</v>
+        <v>33.95</v>
       </c>
       <c r="C490" s="2">
-        <v>25529378973</v>
+        <v>25493636269</v>
       </c>
       <c r="D490" s="3">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -8765,13 +8765,13 @@
         <v>493</v>
       </c>
       <c r="B491" s="2">
-        <v>58.4</v>
+        <v>60</v>
       </c>
       <c r="C491" s="2">
-        <v>6866234640</v>
+        <v>6760208570</v>
       </c>
       <c r="D491" s="3">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -8779,13 +8779,13 @@
         <v>494</v>
       </c>
       <c r="B492" s="2">
-        <v>69.732</v>
+        <v>71.67</v>
       </c>
       <c r="C492" s="2">
-        <v>38697940588</v>
+        <v>38788953222</v>
       </c>
       <c r="D492" s="3">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -8793,13 +8793,13 @@
         <v>495</v>
       </c>
       <c r="B493" s="2">
-        <v>196.84</v>
+        <v>196.08</v>
       </c>
       <c r="C493" s="2">
-        <v>49469804112</v>
+        <v>48436976397</v>
       </c>
       <c r="D493" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -8807,13 +8807,13 @@
         <v>496</v>
       </c>
       <c r="B494" s="2">
-        <v>90.51000000000001</v>
+        <v>90.98</v>
       </c>
       <c r="C494" s="2">
-        <v>387605308360</v>
+        <v>382825861469</v>
       </c>
       <c r="D494" s="3">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -8821,13 +8821,13 @@
         <v>497</v>
       </c>
       <c r="B495" s="2">
-        <v>37.08</v>
+        <v>36.9</v>
       </c>
       <c r="C495" s="2">
-        <v>8207376547</v>
+        <v>8081064217</v>
       </c>
       <c r="D495" s="3">
-        <v>53</v>
+        <v>5</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8835,13 +8835,13 @@
         <v>498</v>
       </c>
       <c r="B496" s="2">
-        <v>16.49</v>
+        <v>15.81</v>
       </c>
       <c r="C496" s="2">
-        <v>2572431198</v>
+        <v>2402174914</v>
       </c>
       <c r="D496" s="3">
-        <v>121</v>
+        <v>12</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -8849,13 +8849,13 @@
         <v>499</v>
       </c>
       <c r="B497" s="2">
-        <v>83.13</v>
+        <v>78.70999999999999</v>
       </c>
       <c r="C497" s="2">
-        <v>14866017012</v>
+        <v>14410171898</v>
       </c>
       <c r="D497" s="3">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -8863,13 +8863,13 @@
         <v>500</v>
       </c>
       <c r="B498" s="2">
-        <v>121.62</v>
+        <v>114.23</v>
       </c>
       <c r="C498" s="2">
-        <v>33465510392</v>
+        <v>33713388303</v>
       </c>
       <c r="D498" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -8877,13 +8877,13 @@
         <v>501</v>
       </c>
       <c r="B499" s="2">
-        <v>110.27</v>
+        <v>111.87</v>
       </c>
       <c r="C499" s="2">
-        <v>23705506211</v>
+        <v>22782115617</v>
       </c>
       <c r="D499" s="3">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -8891,13 +8891,13 @@
         <v>502</v>
       </c>
       <c r="B500" s="2">
-        <v>321</v>
+        <v>303.34</v>
       </c>
       <c r="C500" s="2">
-        <v>16401103787</v>
+        <v>16449559542</v>
       </c>
       <c r="D500" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8905,13 +8905,13 @@
         <v>503</v>
       </c>
       <c r="B501" s="2">
-        <v>53.84</v>
+        <v>54.24</v>
       </c>
       <c r="C501" s="2">
-        <v>8233698102</v>
+        <v>8129351354</v>
       </c>
       <c r="D501" s="3">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -8919,13 +8919,13 @@
         <v>504</v>
       </c>
       <c r="B502" s="2">
-        <v>176.8</v>
+        <v>175.29</v>
       </c>
       <c r="C502" s="2">
-        <v>82255087038</v>
+        <v>82025951155</v>
       </c>
       <c r="D502" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
